--- a/uploads/output.xlsx
+++ b/uploads/output.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Date and Line_5784</t>
+          <t>Date and Line</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Text_5783</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -626,11 +626,7 @@
           <t>September 2 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>35</v>
       </c>
@@ -649,11 +645,7 @@
           <t>September 2 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Yirmiyahu ben Avraham Gurevich</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>35</v>
       </c>
@@ -862,11 +854,7 @@
           <t>September 4 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>35</v>
       </c>
@@ -885,11 +873,7 @@
           <t>September 4 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Eliezer Mellitz</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>35</v>
       </c>
@@ -927,11 +911,7 @@
           <t>September 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>35</v>
       </c>
@@ -950,11 +930,7 @@
           <t>September 5 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Dina Gutnick</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>35</v>
       </c>
@@ -992,11 +968,7 @@
           <t>September 5 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>35</v>
       </c>
@@ -1015,11 +987,7 @@
           <t>September 5 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Yosef Yitzchok Engel</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>35</v>
       </c>
@@ -1247,7 +1215,11 @@
           <t>September 7 - Line 1 (25)</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Libby Echenberg</t>
+        </is>
+      </c>
       <c r="E41" t="n">
         <v>25</v>
       </c>
@@ -1342,11 +1314,7 @@
           <t>September 8 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>In loving memory of Zev Gavriel</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>35</v>
       </c>
@@ -1365,11 +1333,7 @@
           <t>September 8 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Menachem Mendel Halevi</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
         <v>35</v>
       </c>
@@ -1426,11 +1390,7 @@
           <t>September 9 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
         <v>35</v>
       </c>
@@ -1449,11 +1409,7 @@
           <t>September 9 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Leah bas Shmuel</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>35</v>
       </c>
@@ -1664,7 +1620,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>In loving memory</t>
+          <t>Yahrtzeit of Felicia Aaron</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1687,7 +1643,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Soro Bracah bas Yosef Volv</t>
+          <t>Tzipora Bas Shimon Leib</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2088,11 +2044,7 @@
           <t>September 15 - Line 2 (25)</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
         <v>25</v>
       </c>
@@ -2111,11 +2063,7 @@
           <t>September 15 - Line 1 (25)</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Dovid Cohen</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
         <v>25</v>
       </c>
@@ -2438,11 +2386,7 @@
           <t>September 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
         <v>35</v>
       </c>
@@ -2461,11 +2405,7 @@
           <t>September 19 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Naftoli ben Shloime</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
         <v>35</v>
       </c>
@@ -2788,11 +2728,7 @@
           <t>September 22 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>In Memory of</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
         <v>35</v>
       </c>
@@ -2811,11 +2747,7 @@
           <t>September 22 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Eli ben Naftali Blum</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
         <v>35</v>
       </c>
@@ -3119,11 +3051,7 @@
           <t>September 26 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
         <v>35</v>
       </c>
@@ -3144,7 +3072,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Nossen Silberberg</t>
+          <t>Happy Birthday David Vineberg</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3298,11 +3226,7 @@
           <t>September 28 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
         <v>35</v>
       </c>
@@ -3321,11 +3245,7 @@
           <t>September 28 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Meira Rochel Ramer</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
         <v>35</v>
       </c>
@@ -3363,11 +3283,7 @@
           <t>September 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Happy Anniversary</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="n">
         <v>35</v>
       </c>
@@ -3386,11 +3302,7 @@
           <t>September 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Mendel Elyon &amp; Bayla Fraiman</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="n">
         <v>35</v>
       </c>
@@ -4549,11 +4461,7 @@
           <t>October 11 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="n">
         <v>35</v>
       </c>
@@ -4572,11 +4480,7 @@
           <t>October 11 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Chana Thal</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="n">
         <v>35</v>
       </c>
@@ -5070,11 +4974,7 @@
           <t>October 16 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="n">
         <v>35</v>
       </c>
@@ -5093,11 +4993,7 @@
           <t>October 16 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Leah bas Moshe Bressler</t>
-        </is>
-      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
         <v>35</v>
       </c>
@@ -5534,11 +5430,7 @@
           <t>October 20 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D262" t="inlineStr"/>
       <c r="E262" t="n">
         <v>35</v>
       </c>
@@ -5557,11 +5449,7 @@
           <t>October 20 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Rose bas Moritz</t>
-        </is>
-      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="n">
         <v>35</v>
       </c>
@@ -5865,11 +5753,7 @@
           <t>October 23 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="n">
         <v>35</v>
       </c>
@@ -5888,11 +5772,7 @@
           <t>October 23 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Soroh bas Yechiel</t>
-        </is>
-      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="n">
         <v>35</v>
       </c>
@@ -5987,11 +5867,7 @@
           <t>October 24 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="n">
         <v>35</v>
       </c>
@@ -6010,11 +5886,7 @@
           <t>October 24 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Shira Leah Usher</t>
-        </is>
-      </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="n">
         <v>35</v>
       </c>
@@ -6109,11 +5981,7 @@
           <t>October 25 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D291" t="inlineStr"/>
       <c r="E291" t="n">
         <v>35</v>
       </c>
@@ -6132,11 +6000,7 @@
           <t>October 25 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Reuven Moed</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="n">
         <v>35</v>
       </c>
@@ -6383,11 +6247,7 @@
           <t>October 28 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>Hershel &amp; Tzipora Dressler</t>
-        </is>
-      </c>
+      <c r="D305" t="inlineStr"/>
       <c r="E305" t="n">
         <v>35</v>
       </c>
@@ -6425,11 +6285,7 @@
           <t>October 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D307" t="inlineStr"/>
       <c r="E307" t="n">
         <v>35</v>
       </c>
@@ -6448,11 +6304,7 @@
           <t>October 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Sholom Yaakov Horwitz</t>
-        </is>
-      </c>
+      <c r="D308" t="inlineStr"/>
       <c r="E308" t="n">
         <v>35</v>
       </c>
@@ -6547,11 +6399,7 @@
           <t>October 29 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>In loving memory of Mayer ben</t>
-        </is>
-      </c>
+      <c r="D313" t="inlineStr"/>
       <c r="E313" t="n">
         <v>35</v>
       </c>
@@ -6570,11 +6418,7 @@
           <t>October 29 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>Avrohom Abish Lanchman</t>
-        </is>
-      </c>
+      <c r="D314" t="inlineStr"/>
       <c r="E314" t="n">
         <v>35</v>
       </c>
@@ -6840,11 +6684,7 @@
           <t>November 1 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Happy Birthday Mendel Silberberg</t>
-        </is>
-      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="E328" t="n">
         <v>35</v>
       </c>
@@ -6863,11 +6703,7 @@
           <t>November 1 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In loving memory of </t>
-        </is>
-      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="E329" t="n">
         <v>35</v>
       </c>
@@ -6886,11 +6722,7 @@
           <t>November 1 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>Chana bas Mordechai Evans</t>
-        </is>
-      </c>
+      <c r="D330" t="inlineStr"/>
       <c r="E330" t="n">
         <v>35</v>
       </c>
@@ -6909,11 +6741,7 @@
           <t>November 1 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D331" t="inlineStr"/>
       <c r="E331" t="n">
         <v>35</v>
       </c>
@@ -6932,11 +6760,7 @@
           <t>November 1 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>Shlomo ben David Khai &amp; Tovia</t>
-        </is>
-      </c>
+      <c r="D332" t="inlineStr"/>
       <c r="E332" t="n">
         <v>35</v>
       </c>
@@ -6974,11 +6798,7 @@
           <t>November 2 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>Happy 1st Birthday Eliyohu Lifshitz</t>
-        </is>
-      </c>
+      <c r="D334" t="inlineStr"/>
       <c r="E334" t="n">
         <v>35</v>
       </c>
@@ -6997,11 +6817,7 @@
           <t>November 2 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Happy Birthday Soro Moed</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
       <c r="E335" t="n">
         <v>35</v>
       </c>
@@ -7039,11 +6855,7 @@
           <t>November 2 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="E337" t="n">
         <v>35</v>
       </c>
@@ -7062,11 +6874,7 @@
           <t>November 2 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Hershel Kanfer</t>
-        </is>
-      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="E338" t="n">
         <v>35</v>
       </c>
@@ -7256,11 +7064,7 @@
           <t>November 4 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Happy Anniversary</t>
-        </is>
-      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="n">
         <v>35</v>
       </c>
@@ -7279,11 +7083,7 @@
           <t>November 4 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>Hershel &amp; Tzipora Dressler</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="n">
         <v>35</v>
       </c>
@@ -7397,7 +7197,11 @@
           <t>November 5 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Happy Birthday Shulamit Perlo</t>
+        </is>
+      </c>
       <c r="E355" t="n">
         <v>35</v>
       </c>
@@ -7492,11 +7296,7 @@
           <t>November 6 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="n">
         <v>35</v>
       </c>
@@ -7515,11 +7315,7 @@
           <t>November 6 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>Gedalyah ben Mordechai Green</t>
-        </is>
-      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="E361" t="n">
         <v>35</v>
       </c>
@@ -7728,11 +7524,7 @@
           <t>November 8 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D372" t="inlineStr"/>
       <c r="E372" t="n">
         <v>35</v>
       </c>
@@ -7751,11 +7543,7 @@
           <t>November 8 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Minnie Kanfer</t>
-        </is>
-      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="E373" t="n">
         <v>35</v>
       </c>
@@ -7850,7 +7638,11 @@
           <t>November 9 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D378" t="inlineStr"/>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Dave Szalavetz</t>
+        </is>
+      </c>
       <c r="E378" t="n">
         <v>35</v>
       </c>
@@ -7869,7 +7661,11 @@
           <t>November 9 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D379" t="inlineStr"/>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Yitzchok b. Menachem Mendel HaKohen</t>
+        </is>
+      </c>
       <c r="E379" t="n">
         <v>35</v>
       </c>
@@ -8268,11 +8064,7 @@
           <t>November 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D400" t="inlineStr"/>
       <c r="E400" t="n">
         <v>35</v>
       </c>
@@ -8291,11 +8083,7 @@
           <t>November 13 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>Malka bas Meshulem</t>
-        </is>
-      </c>
+      <c r="D401" t="inlineStr"/>
       <c r="E401" t="n">
         <v>35</v>
       </c>
@@ -8390,11 +8178,7 @@
           <t>November 14 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D406" t="inlineStr"/>
       <c r="E406" t="n">
         <v>35</v>
       </c>
@@ -8413,11 +8197,7 @@
           <t>November 14 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>Orna Mammon</t>
-        </is>
-      </c>
+      <c r="D407" t="inlineStr"/>
       <c r="E407" t="n">
         <v>35</v>
       </c>
@@ -8474,11 +8254,7 @@
           <t>November 15 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>Basha Malka (Taylor) Oshins</t>
-        </is>
-      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="E410" t="n">
         <v>35</v>
       </c>
@@ -8497,7 +8273,11 @@
           <t>November 15 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr"/>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Happy Birthday Leiba (Lara)</t>
+        </is>
+      </c>
       <c r="E411" t="n">
         <v>35</v>
       </c>
@@ -8516,11 +8296,7 @@
           <t>November 15 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D412" t="inlineStr"/>
       <c r="E412" t="n">
         <v>35</v>
       </c>
@@ -8541,7 +8317,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Seymour Willinski</t>
+          <t>Yahrtzeit of Eda Tarlo</t>
         </is>
       </c>
       <c r="E413" t="n">
@@ -8638,7 +8414,11 @@
           <t>November 16 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Arnold Harold Aaron</t>
+        </is>
+      </c>
       <c r="E418" t="n">
         <v>35</v>
       </c>
@@ -8657,7 +8437,11 @@
           <t>November 16 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr"/>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Aaron Ben Dov</t>
+        </is>
+      </c>
       <c r="E419" t="n">
         <v>35</v>
       </c>
@@ -8866,7 +8650,11 @@
           <t>November 18 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr"/>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Happy Birthday Noam</t>
+        </is>
+      </c>
       <c r="E430" t="n">
         <v>35</v>
       </c>
@@ -9075,11 +8863,7 @@
           <t>November 20 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D441" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D441" t="inlineStr"/>
       <c r="E441" t="n">
         <v>35</v>
       </c>
@@ -9098,11 +8882,7 @@
           <t>November 20 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>Moshe ben Avraham Bucasey</t>
-        </is>
-      </c>
+      <c r="D442" t="inlineStr"/>
       <c r="E442" t="n">
         <v>35</v>
       </c>
@@ -9672,11 +9452,7 @@
           <t>November 26 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D472" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D472" t="inlineStr"/>
       <c r="E472" t="n">
         <v>35</v>
       </c>
@@ -9695,11 +9471,7 @@
           <t>November 26 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>Yosef Meir Horwitz</t>
-        </is>
-      </c>
+      <c r="D473" t="inlineStr"/>
       <c r="E473" t="n">
         <v>35</v>
       </c>
@@ -9737,11 +9509,7 @@
           <t>November 26 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D475" t="inlineStr"/>
       <c r="E475" t="n">
         <v>35</v>
       </c>
@@ -9760,11 +9528,7 @@
           <t>November 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>Elisheva Anati</t>
-        </is>
-      </c>
+      <c r="D476" t="inlineStr"/>
       <c r="E476" t="n">
         <v>35</v>
       </c>
@@ -9916,11 +9680,7 @@
           <t>November 28 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D484" t="inlineStr"/>
       <c r="E484" t="n">
         <v>35</v>
       </c>
@@ -9939,11 +9699,7 @@
           <t>November 28 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>Chaya bas Pinchas</t>
-        </is>
-      </c>
+      <c r="D485" t="inlineStr"/>
       <c r="E485" t="n">
         <v>35</v>
       </c>
@@ -9981,11 +9737,7 @@
           <t>November 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>In loving memory of Chaim Yosef</t>
-        </is>
-      </c>
+      <c r="D487" t="inlineStr"/>
       <c r="E487" t="n">
         <v>35</v>
       </c>
@@ -10004,11 +9756,7 @@
           <t>November 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>ben Avraham Yitzchak Halevi</t>
-        </is>
-      </c>
+      <c r="D488" t="inlineStr"/>
       <c r="E488" t="n">
         <v>35</v>
       </c>
@@ -10331,11 +10079,7 @@
           <t>December 1 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D505" t="inlineStr"/>
       <c r="E505" t="n">
         <v>35</v>
       </c>
@@ -10354,11 +10098,7 @@
           <t>December 1 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>Chana Hirsch</t>
-        </is>
-      </c>
+      <c r="D506" t="inlineStr"/>
       <c r="E506" t="n">
         <v>35</v>
       </c>
@@ -10434,11 +10174,7 @@
           <t>December 2 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D510" t="inlineStr"/>
       <c r="E510" t="n">
         <v>35</v>
       </c>
@@ -10457,11 +10193,7 @@
           <t>December 2 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>Ahron Asher Kenney</t>
-        </is>
-      </c>
+      <c r="D511" t="inlineStr"/>
       <c r="E511" t="n">
         <v>35</v>
       </c>
@@ -10556,11 +10288,7 @@
           <t>December 3 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D516" t="inlineStr"/>
       <c r="E516" t="n">
         <v>35</v>
       </c>
@@ -10579,11 +10307,7 @@
           <t>December 3 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>Sylvia Kahana</t>
-        </is>
-      </c>
+      <c r="D517" t="inlineStr"/>
       <c r="E517" t="n">
         <v>35</v>
       </c>
@@ -10678,11 +10402,7 @@
           <t>December 4 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D522" t="inlineStr"/>
       <c r="E522" t="n">
         <v>35</v>
       </c>
@@ -10703,7 +10423,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Chaya Itta Engel</t>
+          <t>Happy Birthday Simcha Chaim (Sam)</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -10971,11 +10691,7 @@
           <t>December 7 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D537" t="inlineStr"/>
       <c r="E537" t="n">
         <v>35</v>
       </c>
@@ -10994,11 +10710,7 @@
           <t>December 7 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>Dovber Silberberg</t>
-        </is>
-      </c>
+      <c r="D538" t="inlineStr"/>
       <c r="E538" t="n">
         <v>35</v>
       </c>
@@ -11283,11 +10995,7 @@
           <t>December 12 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>Happy birthday</t>
-        </is>
-      </c>
+      <c r="D553" t="inlineStr"/>
       <c r="E553" t="n">
         <v>35</v>
       </c>
@@ -11306,11 +11014,7 @@
           <t>December 12 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>Chaim Reuven Melech Usher</t>
-        </is>
-      </c>
+      <c r="D554" t="inlineStr"/>
       <c r="E554" t="n">
         <v>35</v>
       </c>
@@ -11329,11 +11033,7 @@
           <t>December 13 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D555" t="inlineStr"/>
       <c r="E555" t="n">
         <v>35</v>
       </c>
@@ -11352,11 +11052,7 @@
           <t>December 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>Nissim ben Chaim Fraiman</t>
-        </is>
-      </c>
+      <c r="D556" t="inlineStr"/>
       <c r="E556" t="n">
         <v>35</v>
       </c>
@@ -11432,11 +11128,7 @@
           <t>December 14 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D560" t="inlineStr"/>
       <c r="E560" t="n">
         <v>35</v>
       </c>
@@ -11455,11 +11147,7 @@
           <t>December 14 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>Yehoshua (Jesse) Oshins</t>
-        </is>
-      </c>
+      <c r="D561" t="inlineStr"/>
       <c r="E561" t="n">
         <v>35</v>
       </c>
@@ -11554,11 +11242,7 @@
           <t>December 15 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D566" t="inlineStr"/>
       <c r="E566" t="n">
         <v>35</v>
       </c>
@@ -11577,11 +11261,7 @@
           <t>December 15 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>Efraim Moshe (Fredric) M. Kohn</t>
-        </is>
-      </c>
+      <c r="D567" t="inlineStr"/>
       <c r="E567" t="n">
         <v>35</v>
       </c>
@@ -11999,11 +11679,7 @@
           <t>December 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D589" t="inlineStr"/>
       <c r="E589" t="n">
         <v>35</v>
       </c>
@@ -12022,11 +11698,7 @@
           <t>December 19 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>Shmuel ben Michoel Moed</t>
-        </is>
-      </c>
+      <c r="D590" t="inlineStr"/>
       <c r="E590" t="n">
         <v>35</v>
       </c>
@@ -12121,11 +11793,7 @@
           <t>December 20 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D595" t="inlineStr"/>
       <c r="E595" t="n">
         <v>35</v>
       </c>
@@ -12144,11 +11812,7 @@
           <t>December 20 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>Esther Rayzel Horwitz</t>
-        </is>
-      </c>
+      <c r="D596" t="inlineStr"/>
       <c r="E596" t="n">
         <v>35</v>
       </c>
@@ -12414,11 +12078,7 @@
           <t>December 24 - Line 2 (20)</t>
         </is>
       </c>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D610" t="inlineStr"/>
       <c r="E610" t="n">
         <v>20</v>
       </c>
@@ -12437,11 +12097,7 @@
           <t>December 24 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D611" t="inlineStr"/>
       <c r="E611" t="n">
         <v>35</v>
       </c>
@@ -12460,11 +12116,7 @@
           <t>December 24 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>Elaine Rosenbaum</t>
-        </is>
-      </c>
+      <c r="D612" t="inlineStr"/>
       <c r="E612" t="n">
         <v>35</v>
       </c>
@@ -12844,11 +12496,7 @@
           <t>December 28 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D632" t="inlineStr"/>
       <c r="E632" t="n">
         <v>35</v>
       </c>
@@ -12867,11 +12515,7 @@
           <t>December 28 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>Chava bas Berl</t>
-        </is>
-      </c>
+      <c r="D633" t="inlineStr"/>
       <c r="E633" t="n">
         <v>35</v>
       </c>
@@ -12909,11 +12553,7 @@
           <t>December 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D635" t="inlineStr"/>
       <c r="E635" t="n">
         <v>35</v>
       </c>
@@ -12932,11 +12572,7 @@
           <t>December 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>Beila bas Yehoshua</t>
-        </is>
-      </c>
+      <c r="D636" t="inlineStr"/>
       <c r="E636" t="n">
         <v>35</v>
       </c>
@@ -13031,11 +12667,7 @@
           <t>December 29 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D641" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D641" t="inlineStr"/>
       <c r="E641" t="n">
         <v>35</v>
       </c>
@@ -13054,11 +12686,7 @@
           <t>December 29 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D642" t="inlineStr">
-        <is>
-          <t>Pinchas ben Yechiel</t>
-        </is>
-      </c>
+      <c r="D642" t="inlineStr"/>
       <c r="E642" t="n">
         <v>35</v>
       </c>
@@ -13400,11 +13028,7 @@
           <t>January 2 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D660" t="inlineStr"/>
       <c r="E660" t="n">
         <v>35</v>
       </c>
@@ -13423,11 +13047,7 @@
           <t>January 2 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>Aizik (Irving Jay) Kazen</t>
-        </is>
-      </c>
+      <c r="D661" t="inlineStr"/>
       <c r="E661" t="n">
         <v>35</v>
       </c>
@@ -13522,11 +13142,7 @@
           <t>January 3 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D666" t="inlineStr"/>
       <c r="E666" t="n">
         <v>35</v>
       </c>
@@ -13547,7 +13163,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Ben Goffin</t>
+          <t>Yahrtzeit Nanette Ogulnik</t>
         </is>
       </c>
       <c r="E667" t="n">
@@ -13758,11 +13374,7 @@
           <t>January 5 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>Happy Anniversary</t>
-        </is>
-      </c>
+      <c r="D678" t="inlineStr"/>
       <c r="E678" t="n">
         <v>35</v>
       </c>
@@ -13781,11 +13393,7 @@
           <t>January 5 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>Yosef Khai &amp; Odelia Mammon</t>
-        </is>
-      </c>
+      <c r="D679" t="inlineStr"/>
       <c r="E679" t="n">
         <v>35</v>
       </c>
@@ -13842,11 +13450,7 @@
           <t>January 6 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D682" t="inlineStr"/>
       <c r="E682" t="n">
         <v>35</v>
       </c>
@@ -13865,11 +13469,7 @@
           <t>January 6 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D683" t="inlineStr">
-        <is>
-          <t>Yehudis bas Chaim</t>
-        </is>
-      </c>
+      <c r="D683" t="inlineStr"/>
       <c r="E683" t="n">
         <v>35</v>
       </c>
@@ -14078,11 +13678,7 @@
           <t>January 8 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D694" t="inlineStr"/>
       <c r="E694" t="n">
         <v>35</v>
       </c>
@@ -14101,11 +13697,7 @@
           <t>January 8 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>Elliot Levin</t>
-        </is>
-      </c>
+      <c r="D695" t="inlineStr"/>
       <c r="E695" t="n">
         <v>35</v>
       </c>
@@ -14428,7 +14020,11 @@
           <t>January 11 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Yisrael (Richard) King</t>
+        </is>
+      </c>
       <c r="E712" t="n">
         <v>35</v>
       </c>
@@ -14618,11 +14214,7 @@
           <t>January 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D722" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D722" t="inlineStr"/>
       <c r="E722" t="n">
         <v>35</v>
       </c>
@@ -14641,11 +14233,7 @@
           <t>January 13 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D723" t="inlineStr">
-        <is>
-          <t>Efraim Moshe (Frederic) Kohn</t>
-        </is>
-      </c>
+      <c r="D723" t="inlineStr"/>
       <c r="E723" t="n">
         <v>35</v>
       </c>
@@ -15310,7 +14898,11 @@
           <t>January 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D758" t="inlineStr"/>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Mayer Ginsberg</t>
+        </is>
+      </c>
       <c r="E758" t="n">
         <v>35</v>
       </c>
@@ -15329,7 +14921,11 @@
           <t>January 19 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D759" t="inlineStr"/>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Eliyahu Mayer ben Tzvi</t>
+        </is>
+      </c>
       <c r="E759" t="n">
         <v>35</v>
       </c>
@@ -15519,11 +15115,7 @@
           <t>January 21 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D769" t="inlineStr"/>
       <c r="E769" t="n">
         <v>35</v>
       </c>
@@ -15542,11 +15134,7 @@
           <t>January 21 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>Tzipora Cohen</t>
-        </is>
-      </c>
+      <c r="D770" t="inlineStr"/>
       <c r="E770" t="n">
         <v>35</v>
       </c>
@@ -15641,11 +15229,7 @@
           <t>January 22 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D775" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D775" t="inlineStr"/>
       <c r="E775" t="n">
         <v>35</v>
       </c>
@@ -15664,11 +15248,7 @@
           <t>January 22 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>Boruch Dressler</t>
-        </is>
-      </c>
+      <c r="D776" t="inlineStr"/>
       <c r="E776" t="n">
         <v>35</v>
       </c>
@@ -15782,7 +15362,11 @@
           <t>January 23 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D782" t="inlineStr"/>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Happy Birthday Hanna Houdayer</t>
+        </is>
+      </c>
       <c r="E782" t="n">
         <v>35</v>
       </c>
@@ -15820,11 +15404,7 @@
           <t>January 24 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>Happy Anniversary</t>
-        </is>
-      </c>
+      <c r="D784" t="inlineStr"/>
       <c r="E784" t="n">
         <v>35</v>
       </c>
@@ -15843,11 +15423,7 @@
           <t>January 24 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D785" t="inlineStr">
-        <is>
-          <t>Moshe &amp; Rivka Lifshitz</t>
-        </is>
-      </c>
+      <c r="D785" t="inlineStr"/>
       <c r="E785" t="n">
         <v>35</v>
       </c>
@@ -15887,7 +15463,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t xml:space="preserve">Happy Birthday </t>
+          <t>Yahrtzeit of Herbert Rubin</t>
         </is>
       </c>
       <c r="E787" t="n">
@@ -15910,7 +15486,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>Rivka Lifshitz</t>
+          <t>Chaim ben Dovid Hakohen</t>
         </is>
       </c>
       <c r="E788" t="n">
@@ -16007,11 +15583,7 @@
           <t>January 25 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D793" t="inlineStr"/>
       <c r="E793" t="n">
         <v>35</v>
       </c>
@@ -16030,11 +15602,7 @@
           <t>January 25 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>Aryeh Lieb ben Shmuel Yitzchak</t>
-        </is>
-      </c>
+      <c r="D794" t="inlineStr"/>
       <c r="E794" t="n">
         <v>35</v>
       </c>
@@ -16148,7 +15716,11 @@
           <t>January 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D800" t="inlineStr"/>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Happy Birthday Ruth Doerfler</t>
+        </is>
+      </c>
       <c r="E800" t="n">
         <v>35</v>
       </c>
@@ -16167,11 +15739,7 @@
           <t>January 27 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D801" t="inlineStr"/>
       <c r="E801" t="n">
         <v>35</v>
       </c>
@@ -16190,11 +15758,7 @@
           <t>January 27 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>Philip Rosenbaum</t>
-        </is>
-      </c>
+      <c r="D802" t="inlineStr"/>
       <c r="E802" t="n">
         <v>35</v>
       </c>
@@ -16213,11 +15777,7 @@
           <t>January 27 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D803" t="inlineStr"/>
       <c r="E803" t="n">
         <v>35</v>
       </c>
@@ -16236,11 +15796,7 @@
           <t>January 27 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D804" t="inlineStr">
-        <is>
-          <t>Moshe ben Eliezer Rosen</t>
-        </is>
-      </c>
+      <c r="D804" t="inlineStr"/>
       <c r="E804" t="n">
         <v>35</v>
       </c>
@@ -16316,11 +15872,7 @@
           <t>January 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D808" t="inlineStr"/>
       <c r="E808" t="n">
         <v>35</v>
       </c>
@@ -16339,11 +15891,7 @@
           <t>January 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>Simcha Shmuel ben Zev Brody</t>
-        </is>
-      </c>
+      <c r="D809" t="inlineStr"/>
       <c r="E809" t="n">
         <v>35</v>
       </c>
@@ -16552,11 +16100,7 @@
           <t>January 30 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D820" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D820" t="inlineStr"/>
       <c r="E820" t="n">
         <v>35</v>
       </c>
@@ -16575,11 +16119,7 @@
           <t>January 30 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>Cheike bas Chaim Bucasey</t>
-        </is>
-      </c>
+      <c r="D821" t="inlineStr"/>
       <c r="E821" t="n">
         <v>35</v>
       </c>
@@ -16674,11 +16214,7 @@
           <t>January 31 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D826" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D826" t="inlineStr"/>
       <c r="E826" t="n">
         <v>35</v>
       </c>
@@ -16699,7 +16235,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>Rivka bas Aharon</t>
+          <t>Happy Birthday Nathaniel Bendahan</t>
         </is>
       </c>
       <c r="E827" t="n">
@@ -16739,11 +16275,7 @@
           <t>February 1 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D829" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D829" t="inlineStr"/>
       <c r="E829" t="n">
         <v>35</v>
       </c>
@@ -16762,11 +16294,7 @@
           <t>February 1 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>Henoch ben Tzvi Hacohen Thal</t>
-        </is>
-      </c>
+      <c r="D830" t="inlineStr"/>
       <c r="E830" t="n">
         <v>35</v>
       </c>
@@ -16806,7 +16334,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>In loving memory of</t>
+          <t>Yahrtzeit of Joe Schlesinger</t>
         </is>
       </c>
       <c r="E832" t="n">
@@ -16829,7 +16357,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>Chaya Sara bas Berel</t>
+          <t>Yosef ben Yechiel</t>
         </is>
       </c>
       <c r="E833" t="n">
@@ -17002,11 +16530,7 @@
           <t>February 3 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D842" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D842" t="inlineStr"/>
       <c r="E842" t="n">
         <v>35</v>
       </c>
@@ -17025,11 +16549,7 @@
           <t>February 3 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D843" t="inlineStr">
-        <is>
-          <t>Yaakov Volf ben Leibel</t>
-        </is>
-      </c>
+      <c r="D843" t="inlineStr"/>
       <c r="E843" t="n">
         <v>35</v>
       </c>
@@ -17580,11 +17100,7 @@
           <t>February 8 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D872" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D872" t="inlineStr"/>
       <c r="E872" t="n">
         <v>35</v>
       </c>
@@ -17603,11 +17119,7 @@
           <t>February 8 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D873" t="inlineStr">
-        <is>
-          <t>Noah Rochel Oshins</t>
-        </is>
-      </c>
+      <c r="D873" t="inlineStr"/>
       <c r="E873" t="n">
         <v>35</v>
       </c>
@@ -17949,7 +17461,11 @@
           <t>February 12 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D891" t="inlineStr"/>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Grace Lassner</t>
+        </is>
+      </c>
       <c r="E891" t="n">
         <v>35</v>
       </c>
@@ -17968,7 +17484,11 @@
           <t>February 12 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D892" t="inlineStr"/>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>Gittel bas Aharon Tzvi</t>
+        </is>
+      </c>
       <c r="E892" t="n">
         <v>35</v>
       </c>
@@ -18101,11 +17621,7 @@
           <t>February 14 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D899" t="inlineStr">
-        <is>
-          <t>Happy birthday Shea Ramer</t>
-        </is>
-      </c>
+      <c r="D899" t="inlineStr"/>
       <c r="E899" t="n">
         <v>35</v>
       </c>
@@ -18124,11 +17640,7 @@
           <t>February 14 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D900" t="inlineStr">
-        <is>
-          <t>In memory of Sima bas Moshe</t>
-        </is>
-      </c>
+      <c r="D900" t="inlineStr"/>
       <c r="E900" t="n">
         <v>35</v>
       </c>
@@ -18147,11 +17659,7 @@
           <t>February 14 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D901" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In loving memory of </t>
-        </is>
-      </c>
+      <c r="D901" t="inlineStr"/>
       <c r="E901" t="n">
         <v>35</v>
       </c>
@@ -18170,11 +17678,7 @@
           <t>February 14 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D902" t="inlineStr">
-        <is>
-          <t>Yaakov ben Shmuel Malin</t>
-        </is>
-      </c>
+      <c r="D902" t="inlineStr"/>
       <c r="E902" t="n">
         <v>35</v>
       </c>
@@ -18193,11 +17697,7 @@
           <t>February 14 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D903" t="inlineStr">
-        <is>
-          <t>Happy birthday</t>
-        </is>
-      </c>
+      <c r="D903" t="inlineStr"/>
       <c r="E903" t="n">
         <v>35</v>
       </c>
@@ -18216,11 +17716,7 @@
           <t>February 14 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D904" t="inlineStr">
-        <is>
-          <t>Avrohom Dovid (Ryder) Cohen</t>
-        </is>
-      </c>
+      <c r="D904" t="inlineStr"/>
       <c r="E904" t="n">
         <v>35</v>
       </c>
@@ -18524,11 +18020,7 @@
           <t>February 17 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D920" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D920" t="inlineStr"/>
       <c r="E920" t="n">
         <v>35</v>
       </c>
@@ -18547,11 +18039,7 @@
           <t>February 17 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D921" t="inlineStr">
-        <is>
-          <t>Adina bat Shimon</t>
-        </is>
-      </c>
+      <c r="D921" t="inlineStr"/>
       <c r="E921" t="n">
         <v>35</v>
       </c>
@@ -18665,11 +18153,7 @@
           <t>February 18 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D927" t="inlineStr">
-        <is>
-          <t>Happy birthday Adira Leah Usher</t>
-        </is>
-      </c>
+      <c r="D927" t="inlineStr"/>
       <c r="E927" t="n">
         <v>35</v>
       </c>
@@ -18764,11 +18248,7 @@
           <t>February 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D932" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Anniversary </t>
-        </is>
-      </c>
+      <c r="D932" t="inlineStr"/>
       <c r="E932" t="n">
         <v>35</v>
       </c>
@@ -18787,11 +18267,7 @@
           <t>February 19 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D933" t="inlineStr">
-        <is>
-          <t>Shea &amp; Meira Rochel Ramer</t>
-        </is>
-      </c>
+      <c r="D933" t="inlineStr"/>
       <c r="E933" t="n">
         <v>35</v>
       </c>
@@ -18886,11 +18362,7 @@
           <t>February 20 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D938" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D938" t="inlineStr"/>
       <c r="E938" t="n">
         <v>35</v>
       </c>
@@ -18911,7 +18383,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>Eliyahu Mendel Oshins</t>
+          <t>Yahrtzeit of Isidore Echenberg</t>
         </is>
       </c>
       <c r="E939" t="n">
@@ -19236,11 +18708,7 @@
           <t>February 23 - Line 2 (25)</t>
         </is>
       </c>
-      <c r="D956" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D956" t="inlineStr"/>
       <c r="E956" t="n">
         <v>25</v>
       </c>
@@ -19259,11 +18727,7 @@
           <t>February 23 - Line 1 (25)</t>
         </is>
       </c>
-      <c r="D957" t="inlineStr">
-        <is>
-          <t>Sholom Dov Ber Gutnick</t>
-        </is>
-      </c>
+      <c r="D957" t="inlineStr"/>
       <c r="E957" t="n">
         <v>25</v>
       </c>
@@ -19396,11 +18860,7 @@
           <t>February 25 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D964" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D964" t="inlineStr"/>
       <c r="E964" t="n">
         <v>35</v>
       </c>
@@ -19419,11 +18879,7 @@
           <t>February 25 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D965" t="inlineStr">
-        <is>
-          <t>Sima bas Avigdor Stern+E1384</t>
-        </is>
-      </c>
+      <c r="D965" t="inlineStr"/>
       <c r="E965" t="n">
         <v>35</v>
       </c>
@@ -19461,11 +18917,7 @@
           <t>February 25 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D967" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D967" t="inlineStr"/>
       <c r="E967" t="n">
         <v>35</v>
       </c>
@@ -19484,11 +18936,7 @@
           <t>February 25 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D968" t="inlineStr">
-        <is>
-          <t>Soro bas Leah Malin</t>
-        </is>
-      </c>
+      <c r="D968" t="inlineStr"/>
       <c r="E968" t="n">
         <v>35</v>
       </c>
@@ -19583,11 +19031,7 @@
           <t>February 26 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D973" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Anniversary </t>
-        </is>
-      </c>
+      <c r="D973" t="inlineStr"/>
       <c r="E973" t="n">
         <v>35</v>
       </c>
@@ -19606,11 +19050,7 @@
           <t>February 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D974" t="inlineStr">
-        <is>
-          <t>Yitzchok &amp; Alte Miriam Malin</t>
-        </is>
-      </c>
+      <c r="D974" t="inlineStr"/>
       <c r="E974" t="n">
         <v>35</v>
       </c>
@@ -19724,7 +19164,11 @@
           <t>February 27 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D980" t="inlineStr"/>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>Happy Birthday Yeshayahu (Jack)</t>
+        </is>
+      </c>
       <c r="E980" t="n">
         <v>35</v>
       </c>
@@ -20180,11 +19624,7 @@
           <t>March 3 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1004" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1004" t="inlineStr"/>
       <c r="E1004" t="n">
         <v>35</v>
       </c>
@@ -20203,11 +19643,7 @@
           <t>March 3 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1005" t="inlineStr">
-        <is>
-          <t>Shmuel Steiner</t>
-        </is>
-      </c>
+      <c r="D1005" t="inlineStr"/>
       <c r="E1005" t="n">
         <v>35</v>
       </c>
@@ -20226,11 +19662,7 @@
           <t>March 3 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1006" t="inlineStr">
-        <is>
-          <t>Happy Birthday Altie Miriam Kenney</t>
-        </is>
-      </c>
+      <c r="D1006" t="inlineStr"/>
       <c r="E1006" t="n">
         <v>35</v>
       </c>
@@ -20268,11 +19700,7 @@
           <t>March 3 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1008" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1008" t="inlineStr"/>
       <c r="E1008" t="n">
         <v>35</v>
       </c>
@@ -20291,11 +19719,7 @@
           <t>March 3 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1009" t="inlineStr">
-        <is>
-          <t>Rivkah Chaya Ramer</t>
-        </is>
-      </c>
+      <c r="D1009" t="inlineStr"/>
       <c r="E1009" t="n">
         <v>35</v>
       </c>
@@ -20504,11 +19928,7 @@
           <t>March 5 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1020" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D1020" t="inlineStr"/>
       <c r="E1020" t="n">
         <v>35</v>
       </c>
@@ -20527,11 +19947,7 @@
           <t>March 5 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1021" t="inlineStr">
-        <is>
-          <t>Reuven Eitan (Dylan) Cohen</t>
-        </is>
-      </c>
+      <c r="D1021" t="inlineStr"/>
       <c r="E1021" t="n">
         <v>35</v>
       </c>
@@ -20683,11 +20099,7 @@
           <t>March 7 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1029" t="inlineStr"/>
       <c r="E1029" t="n">
         <v>35</v>
       </c>
@@ -20706,11 +20118,7 @@
           <t>March 7 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1030" t="inlineStr">
-        <is>
-          <t>Hillel ben Dov Aryeh Bondar</t>
-        </is>
-      </c>
+      <c r="D1030" t="inlineStr"/>
       <c r="E1030" t="n">
         <v>35</v>
       </c>
@@ -20748,11 +20156,7 @@
           <t>March 7 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1032" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D1032" t="inlineStr"/>
       <c r="E1032" t="n">
         <v>35</v>
       </c>
@@ -20771,11 +20175,7 @@
           <t>March 7 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1033" t="inlineStr">
-        <is>
-          <t>Daniel Hirsch</t>
-        </is>
-      </c>
+      <c r="D1033" t="inlineStr"/>
       <c r="E1033" t="n">
         <v>35</v>
       </c>
@@ -21326,7 +20726,11 @@
           <t>March 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1062" t="inlineStr"/>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Grace Lassner</t>
+        </is>
+      </c>
       <c r="E1062" t="n">
         <v>35</v>
       </c>
@@ -21345,7 +20749,11 @@
           <t>March 13 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1063" t="inlineStr"/>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>Gittel bas Aharon Tzvi</t>
+        </is>
+      </c>
       <c r="E1063" t="n">
         <v>35</v>
       </c>
@@ -21478,11 +20886,7 @@
           <t>March 15 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>Happy birthday Shea Ramer</t>
-        </is>
-      </c>
+      <c r="D1070" t="inlineStr"/>
       <c r="E1070" t="n">
         <v>35</v>
       </c>
@@ -21501,11 +20905,7 @@
           <t>March 15 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1071" t="inlineStr">
-        <is>
-          <t>In memory of Sima bas Moshe</t>
-        </is>
-      </c>
+      <c r="D1071" t="inlineStr"/>
       <c r="E1071" t="n">
         <v>35</v>
       </c>
@@ -21524,11 +20924,7 @@
           <t>March 15 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1072" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In loving memory of </t>
-        </is>
-      </c>
+      <c r="D1072" t="inlineStr"/>
       <c r="E1072" t="n">
         <v>35</v>
       </c>
@@ -21547,11 +20943,7 @@
           <t>March 15 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1073" t="inlineStr">
-        <is>
-          <t>Yaakov ben Shmuel Malin</t>
-        </is>
-      </c>
+      <c r="D1073" t="inlineStr"/>
       <c r="E1073" t="n">
         <v>35</v>
       </c>
@@ -21570,11 +20962,7 @@
           <t>March 15 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1074" t="inlineStr">
-        <is>
-          <t>Happy birthday</t>
-        </is>
-      </c>
+      <c r="D1074" t="inlineStr"/>
       <c r="E1074" t="n">
         <v>35</v>
       </c>
@@ -21593,11 +20981,7 @@
           <t>March 15 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1075" t="inlineStr">
-        <is>
-          <t>Avrohom Dovid (Ryder) Cohen</t>
-        </is>
-      </c>
+      <c r="D1075" t="inlineStr"/>
       <c r="E1075" t="n">
         <v>35</v>
       </c>
@@ -21901,11 +21285,7 @@
           <t>March 18 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1091" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1091" t="inlineStr"/>
       <c r="E1091" t="n">
         <v>35</v>
       </c>
@@ -21924,11 +21304,7 @@
           <t>March 18 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1092" t="inlineStr">
-        <is>
-          <t>Adina bat Shimon</t>
-        </is>
-      </c>
+      <c r="D1092" t="inlineStr"/>
       <c r="E1092" t="n">
         <v>35</v>
       </c>
@@ -22042,11 +21418,7 @@
           <t>March 19 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1098" t="inlineStr">
-        <is>
-          <t>Happy birthday Adira Leah Usher</t>
-        </is>
-      </c>
+      <c r="D1098" t="inlineStr"/>
       <c r="E1098" t="n">
         <v>35</v>
       </c>
@@ -22141,11 +21513,7 @@
           <t>March 20 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Anniversary </t>
-        </is>
-      </c>
+      <c r="D1103" t="inlineStr"/>
       <c r="E1103" t="n">
         <v>35</v>
       </c>
@@ -22164,11 +21532,7 @@
           <t>March 20 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1104" t="inlineStr">
-        <is>
-          <t>Shea &amp; Meira Rochel Ramer</t>
-        </is>
-      </c>
+      <c r="D1104" t="inlineStr"/>
       <c r="E1104" t="n">
         <v>35</v>
       </c>
@@ -22225,11 +21589,7 @@
           <t>March 21 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1107" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1107" t="inlineStr"/>
       <c r="E1107" t="n">
         <v>35</v>
       </c>
@@ -22250,7 +21610,7 @@
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>Eliyahu Mendel Oshins</t>
+          <t>Yahrtzeit of Isidore Echenberg</t>
         </is>
       </c>
       <c r="E1108" t="n">
@@ -22461,11 +21821,7 @@
           <t>March 24 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D1119" t="inlineStr"/>
       <c r="E1119" t="n">
         <v>35</v>
       </c>
@@ -22484,11 +21840,7 @@
           <t>March 24 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1120" t="inlineStr">
-        <is>
-          <t>Sholom Dov Ber Gutnick</t>
-        </is>
-      </c>
+      <c r="D1120" t="inlineStr"/>
       <c r="E1120" t="n">
         <v>35</v>
       </c>
@@ -22621,11 +21973,7 @@
           <t>March 26 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1127" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1127" t="inlineStr"/>
       <c r="E1127" t="n">
         <v>35</v>
       </c>
@@ -22644,11 +21992,7 @@
           <t>March 26 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1128" t="inlineStr">
-        <is>
-          <t>Sima bas Avigdor Stern+E1384</t>
-        </is>
-      </c>
+      <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="n">
         <v>35</v>
       </c>
@@ -22686,11 +22030,7 @@
           <t>March 26 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1130" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="n">
         <v>35</v>
       </c>
@@ -22709,11 +22049,7 @@
           <t>March 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1131" t="inlineStr">
-        <is>
-          <t>Soro bas Leah Malin</t>
-        </is>
-      </c>
+      <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="n">
         <v>35</v>
       </c>
@@ -22808,11 +22144,7 @@
           <t>March 27 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Anniversary </t>
-        </is>
-      </c>
+      <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="n">
         <v>35</v>
       </c>
@@ -22831,11 +22163,7 @@
           <t>March 27 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1137" t="inlineStr">
-        <is>
-          <t>Yitzchok &amp; Alte Miriam Malin</t>
-        </is>
-      </c>
+      <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="n">
         <v>35</v>
       </c>
@@ -22949,7 +22277,11 @@
           <t>March 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>Happy Birthday Yeshayahu (Jack)</t>
+        </is>
+      </c>
       <c r="E1143" t="n">
         <v>35</v>
       </c>
@@ -23272,11 +22604,7 @@
           <t>April 2 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1160" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="n">
         <v>35</v>
       </c>
@@ -23295,11 +22623,7 @@
           <t>April 2 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1161" t="inlineStr">
-        <is>
-          <t>Shmuel Steiner</t>
-        </is>
-      </c>
+      <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="n">
         <v>35</v>
       </c>
@@ -23318,11 +22642,7 @@
           <t>April 2 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1162" t="inlineStr">
-        <is>
-          <t>Happy Birthday Altie Miriam Kenney</t>
-        </is>
-      </c>
+      <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="n">
         <v>35</v>
       </c>
@@ -23360,11 +22680,7 @@
           <t>April 2 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="n">
         <v>35</v>
       </c>
@@ -23383,11 +22699,7 @@
           <t>April 2 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>Rivkah Chaya Ramer</t>
-        </is>
-      </c>
+      <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="n">
         <v>35</v>
       </c>
@@ -23596,11 +22908,7 @@
           <t>April 4 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="n">
         <v>35</v>
       </c>
@@ -23619,11 +22927,7 @@
           <t>April 4 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>Reuven Eitan (Dylan) Cohen</t>
-        </is>
-      </c>
+      <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="n">
         <v>35</v>
       </c>
@@ -23775,11 +23079,7 @@
           <t>April 6 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="n">
         <v>35</v>
       </c>
@@ -23798,11 +23098,7 @@
           <t>April 6 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1186" t="inlineStr">
-        <is>
-          <t>Daniel Hirsch</t>
-        </is>
-      </c>
+      <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="n">
         <v>35</v>
       </c>
@@ -24125,11 +23421,7 @@
           <t>April 9 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1203" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="n">
         <v>35</v>
       </c>
@@ -24148,11 +23440,7 @@
           <t>April 9 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1204" t="inlineStr">
-        <is>
-          <t>Binah Gittel - Charlee Oshins</t>
-        </is>
-      </c>
+      <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="n">
         <v>35</v>
       </c>
@@ -24475,11 +23763,7 @@
           <t>April 12 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1221" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="n">
         <v>35</v>
       </c>
@@ -24498,11 +23782,7 @@
           <t>April 12 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1222" t="inlineStr">
-        <is>
-          <t>Shoshanah bat Massouda</t>
-        </is>
-      </c>
+      <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="n">
         <v>35</v>
       </c>
@@ -24578,11 +23858,7 @@
           <t>April 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Anniversary </t>
-        </is>
-      </c>
+      <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="n">
         <v>35</v>
       </c>
@@ -24601,11 +23877,7 @@
           <t>April 13 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1227" t="inlineStr">
-        <is>
-          <t>Tzvi &amp; Ariel Kenney</t>
-        </is>
-      </c>
+      <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="n">
         <v>35</v>
       </c>
@@ -25346,11 +24618,7 @@
           <t>April 20 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1266" t="inlineStr"/>
       <c r="E1266" t="n">
         <v>35</v>
       </c>
@@ -25369,11 +24637,7 @@
           <t>April 20 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>Avraham ben Baruch</t>
-        </is>
-      </c>
+      <c r="D1267" t="inlineStr"/>
       <c r="E1267" t="n">
         <v>35</v>
       </c>
@@ -25506,11 +24770,7 @@
           <t>April 22 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1274" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1274" t="inlineStr"/>
       <c r="E1274" t="n">
         <v>35</v>
       </c>
@@ -25529,11 +24789,7 @@
           <t>April 22 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1275" t="inlineStr">
-        <is>
-          <t>Aida bas Yosef Rosen</t>
-        </is>
-      </c>
+      <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="n">
         <v>35</v>
       </c>
@@ -25571,11 +24827,7 @@
           <t>April 23 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1277" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1277" t="inlineStr"/>
       <c r="E1277" t="n">
         <v>35</v>
       </c>
@@ -25594,11 +24846,7 @@
           <t>April 23 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1278" t="inlineStr">
-        <is>
-          <t>Binyomin ben Hershel</t>
-        </is>
-      </c>
+      <c r="D1278" t="inlineStr"/>
       <c r="E1278" t="n">
         <v>35</v>
       </c>
@@ -25617,11 +24865,7 @@
           <t>April 24 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1279" t="inlineStr">
-        <is>
-          <t>Happy birthday Dr. Dovid Hirsch</t>
-        </is>
-      </c>
+      <c r="D1279" t="inlineStr"/>
       <c r="E1279" t="n">
         <v>35</v>
       </c>
@@ -25640,11 +24884,7 @@
           <t>April 24 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1280" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1280" t="inlineStr"/>
       <c r="E1280" t="n">
         <v>35</v>
       </c>
@@ -25663,11 +24903,7 @@
           <t>April 24 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1281" t="inlineStr">
-        <is>
-          <t>Rochel Gnesha bas Naftoli</t>
-        </is>
-      </c>
+      <c r="D1281" t="inlineStr"/>
       <c r="E1281" t="n">
         <v>35</v>
       </c>
@@ -25724,11 +24960,7 @@
           <t>April 25 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1284" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1284" t="inlineStr"/>
       <c r="E1284" t="n">
         <v>35</v>
       </c>
@@ -25747,11 +24979,7 @@
           <t>April 25 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1285" t="inlineStr">
-        <is>
-          <t>Moshe Binyamin Hirsch</t>
-        </is>
-      </c>
+      <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="n">
         <v>35</v>
       </c>
@@ -25846,7 +25074,11 @@
           <t>April 27 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1290" t="inlineStr"/>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1290" t="n">
         <v>35</v>
       </c>
@@ -25865,7 +25097,11 @@
           <t>April 27 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1291" t="inlineStr"/>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>Sarah (Caroline) Amzallag</t>
+        </is>
+      </c>
       <c r="E1291" t="n">
         <v>35</v>
       </c>
@@ -25960,7 +25196,11 @@
           <t>April 29 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1296" t="inlineStr"/>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1296" t="n">
         <v>35</v>
       </c>
@@ -25979,7 +25219,11 @@
           <t>April 29 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1297" t="inlineStr"/>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>Dr. Shlomo (Shawn) Cohen</t>
+        </is>
+      </c>
       <c r="E1297" t="n">
         <v>35</v>
       </c>
@@ -26682,11 +25926,7 @@
           <t>May 7 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1334" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1334" t="inlineStr"/>
       <c r="E1334" t="n">
         <v>35</v>
       </c>
@@ -26705,11 +25945,7 @@
           <t>May 7 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1335" t="inlineStr">
-        <is>
-          <t>Avraham Yehoshua Anati</t>
-        </is>
-      </c>
+      <c r="D1335" t="inlineStr"/>
       <c r="E1335" t="n">
         <v>35</v>
       </c>
@@ -26842,11 +26078,7 @@
           <t>May 9 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1342" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1342" t="inlineStr"/>
       <c r="E1342" t="n">
         <v>35</v>
       </c>
@@ -26865,11 +26097,7 @@
           <t>May 9 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1343" t="inlineStr">
-        <is>
-          <t>Shmuel ben Yechiel Evans</t>
-        </is>
-      </c>
+      <c r="D1343" t="inlineStr"/>
       <c r="E1343" t="n">
         <v>35</v>
       </c>
@@ -27097,11 +26325,7 @@
           <t>May 12 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1355" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1355" t="inlineStr"/>
       <c r="E1355" t="n">
         <v>35</v>
       </c>
@@ -27120,11 +26344,7 @@
           <t>May 12 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1356" t="inlineStr">
-        <is>
-          <t>Ahron Melech ben Yaakov</t>
-        </is>
-      </c>
+      <c r="D1356" t="inlineStr"/>
       <c r="E1356" t="n">
         <v>35</v>
       </c>
@@ -27219,7 +26439,11 @@
           <t>May 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1361" t="inlineStr"/>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Lyla Rapkin</t>
+        </is>
+      </c>
       <c r="E1361" t="n">
         <v>35</v>
       </c>
@@ -27238,7 +26462,11 @@
           <t>May 13 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1362" t="inlineStr"/>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>Leah bas Aryeh Leib</t>
+        </is>
+      </c>
       <c r="E1362" t="n">
         <v>35</v>
       </c>
@@ -27333,7 +26561,11 @@
           <t>May 14 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1367" t="inlineStr"/>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Mortimer Vineberg</t>
+        </is>
+      </c>
       <c r="E1367" t="n">
         <v>35</v>
       </c>
@@ -27352,7 +26584,11 @@
           <t>May 14 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>Mordechai ben Shmuel Avraham</t>
+        </is>
+      </c>
       <c r="E1368" t="n">
         <v>35</v>
       </c>
@@ -27713,11 +26949,7 @@
           <t>May 18 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1387" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1387" t="inlineStr"/>
       <c r="E1387" t="n">
         <v>35</v>
       </c>
@@ -27736,11 +26968,7 @@
           <t>May 18 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1388" t="inlineStr">
-        <is>
-          <t>Esther Baila bas Gershon</t>
-        </is>
-      </c>
+      <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="n">
         <v>35</v>
       </c>
@@ -27835,7 +27063,11 @@
           <t>May 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1393" t="inlineStr"/>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Sidney Morris Copoloff</t>
+        </is>
+      </c>
       <c r="E1393" t="n">
         <v>35</v>
       </c>
@@ -27854,7 +27086,11 @@
           <t xml:space="preserve">May 19 - Line 1 (35) </t>
         </is>
       </c>
-      <c r="D1394" t="inlineStr"/>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>Shlomo Moshe ben Refoel Tzvi</t>
+        </is>
+      </c>
       <c r="E1394" t="n">
         <v>35</v>
       </c>
@@ -28063,11 +27299,7 @@
           <t>May 21 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1405" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="n">
         <v>35</v>
       </c>
@@ -28086,11 +27318,7 @@
           <t>May 21 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1406" t="inlineStr">
-        <is>
-          <t>Levi Hirsch</t>
-        </is>
-      </c>
+      <c r="D1406" t="inlineStr"/>
       <c r="E1406" t="n">
         <v>35</v>
       </c>
@@ -28128,11 +27356,7 @@
           <t>May 22 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1408" t="inlineStr">
-        <is>
-          <t>Happy Anniversary</t>
-        </is>
-      </c>
+      <c r="D1408" t="inlineStr"/>
       <c r="E1408" t="n">
         <v>35</v>
       </c>
@@ -28151,11 +27375,7 @@
           <t>May 22 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1409" t="inlineStr">
-        <is>
-          <t>Chaim &amp; Liba Fraiman</t>
-        </is>
-      </c>
+      <c r="D1409" t="inlineStr"/>
       <c r="E1409" t="n">
         <v>35</v>
       </c>
@@ -28174,11 +27394,7 @@
           <t>May 22 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1410" t="inlineStr">
-        <is>
-          <t>In memory of Hershel ben Shmuel</t>
-        </is>
-      </c>
+      <c r="D1410" t="inlineStr"/>
       <c r="E1410" t="n">
         <v>35</v>
       </c>
@@ -28539,11 +27755,7 @@
           <t>May 26 - Line 2 (20)</t>
         </is>
       </c>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D1429" t="inlineStr"/>
       <c r="E1429" t="n">
         <v>20</v>
       </c>
@@ -28562,11 +27774,7 @@
           <t>May 26 - Line 1 (20)</t>
         </is>
       </c>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>Tzvi (Rick) &amp; Miriam (Mona) Sherman</t>
-        </is>
-      </c>
+      <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="n">
         <v>20</v>
       </c>
@@ -29250,7 +28458,11 @@
           <t>June 2 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1466" t="inlineStr"/>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>Yahtzeit of Mark Niloff</t>
+        </is>
+      </c>
       <c r="E1466" t="n">
         <v>35</v>
       </c>
@@ -29269,7 +28481,11 @@
           <t>June 2 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1467" t="inlineStr"/>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>Michoel ben Yosef</t>
+        </is>
+      </c>
       <c r="E1467" t="n">
         <v>35</v>
       </c>
@@ -29689,7 +28905,7 @@
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>Happy Birthday Arie Taykan</t>
+          <t xml:space="preserve">Yahrtzeit of </t>
         </is>
       </c>
       <c r="E1489" t="n">
@@ -29712,7 +28928,7 @@
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>In loving memory of R' Meier Zeff</t>
+          <t>Yeshayahu ben Avrohom Jodorcovsky</t>
         </is>
       </c>
       <c r="E1490" t="n">
@@ -29735,7 +28951,7 @@
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>&amp; Sara bas Yehoshua Zeff</t>
+          <t>Yahrtzeit of Charlotte Schwartz</t>
         </is>
       </c>
       <c r="E1491" t="n">
@@ -29775,7 +28991,11 @@
           <t>June 7 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1493" t="inlineStr"/>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>Happy Birthday Eden (Sophia)</t>
+        </is>
+      </c>
       <c r="E1493" t="n">
         <v>35</v>
       </c>
@@ -29948,7 +29168,7 @@
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>Happy Birthday</t>
+          <t>Yahtzeit of Meer Friedman</t>
         </is>
       </c>
       <c r="E1502" t="n">
@@ -29971,7 +29191,7 @@
       </c>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>Elazar Moed</t>
+          <t>Mayer ben Chaim</t>
         </is>
       </c>
       <c r="E1503" t="n">
@@ -30068,11 +29288,7 @@
           <t>June 10 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1508" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="n">
         <v>35</v>
       </c>
@@ -30091,11 +29307,7 @@
           <t>June 10 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1509" t="inlineStr">
-        <is>
-          <t>Yochonon Zev Anati</t>
-        </is>
-      </c>
+      <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="n">
         <v>35</v>
       </c>
@@ -30152,11 +29364,7 @@
           <t>June 11 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1512" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="n">
         <v>35</v>
       </c>
@@ -30175,11 +29383,7 @@
           <t>June 11 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>Yaakov ben Leib</t>
-        </is>
-      </c>
+      <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="n">
         <v>35</v>
       </c>
@@ -30255,11 +29459,7 @@
           <t>June 12 - Line 2 (25)</t>
         </is>
       </c>
-      <c r="D1517" t="inlineStr">
-        <is>
-          <t>Happy birthday</t>
-        </is>
-      </c>
+      <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="n">
         <v>25</v>
       </c>
@@ -30278,11 +29478,7 @@
           <t>June 12 - Line 1 (25)</t>
         </is>
       </c>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>Reuven Chanan Semel</t>
-        </is>
-      </c>
+      <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="n">
         <v>25</v>
       </c>
@@ -30586,7 +29782,11 @@
           <t>June 16 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1534" t="inlineStr"/>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Bubby Notik</t>
+        </is>
+      </c>
       <c r="E1534" t="n">
         <v>35</v>
       </c>
@@ -30605,7 +29805,11 @@
           <t>June 16 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1535" t="inlineStr"/>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>Rivka Sheina bas R' Saadya</t>
+        </is>
+      </c>
       <c r="E1535" t="n">
         <v>35</v>
       </c>
@@ -30643,7 +29847,11 @@
           <t>June 16 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1537" t="inlineStr"/>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Abe Horovitz</t>
+        </is>
+      </c>
       <c r="E1537" t="n">
         <v>35</v>
       </c>
@@ -30662,7 +29870,11 @@
           <t>June 16 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1538" t="inlineStr"/>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>Avraham ben Tzvi</t>
+        </is>
+      </c>
       <c r="E1538" t="n">
         <v>35</v>
       </c>
@@ -30814,11 +30026,7 @@
           <t>June 18 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="n">
         <v>35</v>
       </c>
@@ -30837,11 +30045,7 @@
           <t>June 18 - Line 4 (30)</t>
         </is>
       </c>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>Dovid ben Volf Tex</t>
-        </is>
-      </c>
+      <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="n">
         <v>30</v>
       </c>
@@ -30879,11 +30083,7 @@
           <t>June 18 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1549" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="n">
         <v>35</v>
       </c>
@@ -30902,11 +30102,7 @@
           <t>June 18 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1550" t="inlineStr">
-        <is>
-          <t>Ariah Leev ben Yehoshua</t>
-        </is>
-      </c>
+      <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="n">
         <v>35</v>
       </c>
@@ -31096,11 +30292,7 @@
           <t>June 20 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1560" t="inlineStr">
-        <is>
-          <t>In loving memory of Robert Arthur</t>
-        </is>
-      </c>
+      <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="n">
         <v>35</v>
       </c>
@@ -31119,11 +30311,7 @@
           <t>June 20 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ben Boruch Dressler </t>
-        </is>
-      </c>
+      <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="n">
         <v>35</v>
       </c>
@@ -31144,7 +30332,7 @@
       </c>
       <c r="D1562" t="inlineStr">
         <is>
-          <t>Sivan 20</t>
+          <t>Yahrtzeit of Fiby Amar</t>
         </is>
       </c>
       <c r="E1562" t="n">
@@ -31184,11 +30372,7 @@
           <t>June 21 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1564" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="n">
         <v>35</v>
       </c>
@@ -31207,11 +30391,7 @@
           <t>June 21 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>Leah bas Eliezer Yosef Rosen</t>
-        </is>
-      </c>
+      <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="n">
         <v>35</v>
       </c>
@@ -31249,11 +30429,7 @@
           <t>June 21 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="n">
         <v>35</v>
       </c>
@@ -31272,11 +30448,7 @@
           <t>June 21 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1568" t="inlineStr">
-        <is>
-          <t>Layah bas Zalman</t>
-        </is>
-      </c>
+      <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="n">
         <v>35</v>
       </c>
@@ -31333,11 +30505,7 @@
           <t>June 22 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="n">
         <v>35</v>
       </c>
@@ -31356,11 +30524,7 @@
           <t>June 22 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>R' Eliyahu ben R' Shaul Engel</t>
-        </is>
-      </c>
+      <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="n">
         <v>35</v>
       </c>
@@ -31398,11 +30562,7 @@
           <t>June 23 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1574" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="n">
         <v>35</v>
       </c>
@@ -31421,11 +30581,7 @@
           <t>June 23 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1575" t="inlineStr">
-        <is>
-          <t>Efraim ben Itzach</t>
-        </is>
-      </c>
+      <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="n">
         <v>35</v>
       </c>
@@ -31520,11 +30676,7 @@
           <t>June 24 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1580" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="n">
         <v>35</v>
       </c>
@@ -31543,11 +30695,7 @@
           <t>June 24 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1581" t="inlineStr">
-        <is>
-          <t>Moshe Lifshitz</t>
-        </is>
-      </c>
+      <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="n">
         <v>35</v>
       </c>
@@ -31642,11 +30790,7 @@
           <t>June 25 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1586" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="n">
         <v>35</v>
       </c>
@@ -31665,11 +30809,7 @@
           <t>June 25 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1587" t="inlineStr">
-        <is>
-          <t>Yitzchak ben Mordechai Stern</t>
-        </is>
-      </c>
+      <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="n">
         <v>35</v>
       </c>
@@ -31766,7 +30906,7 @@
       </c>
       <c r="D1592" t="inlineStr">
         <is>
-          <t>In loving memory of</t>
+          <t>Happy Birthday</t>
         </is>
       </c>
       <c r="E1592" t="n">
@@ -31789,7 +30929,7 @@
       </c>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>Boruch ben Dorothy Dressler</t>
+          <t>Aryeh (Charles) Schiller</t>
         </is>
       </c>
       <c r="E1593" t="n">
@@ -31867,7 +31007,11 @@
           <t>June 27 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1597" t="inlineStr"/>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>Happy Birthday Sarah</t>
+        </is>
+      </c>
       <c r="E1597" t="n">
         <v>35</v>
       </c>
@@ -31905,7 +31049,11 @@
           <t>June 27 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1599" t="inlineStr"/>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>Happy Birthday Ahuva (Amanda) Beker</t>
+        </is>
+      </c>
       <c r="E1599" t="n">
         <v>35</v>
       </c>
@@ -32000,11 +31148,7 @@
           <t>June 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1604" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="n">
         <v>35</v>
       </c>
@@ -32023,11 +31167,7 @@
           <t>June 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1605" t="inlineStr">
-        <is>
-          <t>Sarah Chaya bas Dov Ber Brody</t>
-        </is>
-      </c>
+      <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="n">
         <v>35</v>
       </c>
@@ -32065,11 +31205,7 @@
           <t>June 29 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1607" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In loving memory of </t>
-        </is>
-      </c>
+      <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="n">
         <v>35</v>
       </c>
@@ -32088,11 +31224,7 @@
           <t>June 29 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1608" t="inlineStr">
-        <is>
-          <t>Laura Debra Lane</t>
-        </is>
-      </c>
+      <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="n">
         <v>35</v>
       </c>
@@ -32225,11 +31357,7 @@
           <t>July 1 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1615" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="n">
         <v>35</v>
       </c>
@@ -32248,11 +31376,7 @@
           <t>July 1 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1616" t="inlineStr">
-        <is>
-          <t>Yaakov Hirsch</t>
-        </is>
-      </c>
+      <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="n">
         <v>35</v>
       </c>
@@ -32404,11 +31528,7 @@
           <t>July 3 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1624" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="n">
         <v>35</v>
       </c>
@@ -32427,11 +31547,7 @@
           <t>July 3 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1625" t="inlineStr">
-        <is>
-          <t>Moshe Avraham Ramer</t>
-        </is>
-      </c>
+      <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="n">
         <v>35</v>
       </c>
@@ -32469,11 +31585,7 @@
           <t>July 3 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1627" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="n">
         <v>35</v>
       </c>
@@ -32492,11 +31604,7 @@
           <t>July 3 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1628" t="inlineStr">
-        <is>
-          <t>Yosef Volf ben Yehoshua E1703</t>
-        </is>
-      </c>
+      <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="n">
         <v>35</v>
       </c>
@@ -32591,11 +31699,7 @@
           <t>July 4 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1633" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Anniversary </t>
-        </is>
-      </c>
+      <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="n">
         <v>35</v>
       </c>
@@ -32614,11 +31718,7 @@
           <t>July 4 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1634" t="inlineStr">
-        <is>
-          <t>Fraida Baila &amp; Rafi Rosen</t>
-        </is>
-      </c>
+      <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="n">
         <v>35</v>
       </c>
@@ -32656,11 +31756,7 @@
           <t>July 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1636" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="n">
         <v>35</v>
       </c>
@@ -32679,11 +31775,7 @@
           <t>July 5 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1637" t="inlineStr">
-        <is>
-          <t>Avraham ben Moshe Hirsch</t>
-        </is>
-      </c>
+      <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="n">
         <v>35</v>
       </c>
@@ -32721,11 +31813,7 @@
           <t>July 5 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1639" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="n">
         <v>35</v>
       </c>
@@ -32744,11 +31832,7 @@
           <t>July 5 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1640" t="inlineStr">
-        <is>
-          <t>Leib ben Max</t>
-        </is>
-      </c>
+      <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="n">
         <v>35</v>
       </c>
@@ -32881,7 +31965,11 @@
           <t>July 7 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1647" t="inlineStr"/>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Sonny Steinman</t>
+        </is>
+      </c>
       <c r="E1647" t="n">
         <v>35</v>
       </c>
@@ -32900,7 +31988,11 @@
           <t>July 7 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1648" t="inlineStr"/>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>Yitzchak ben Dovid</t>
+        </is>
+      </c>
       <c r="E1648" t="n">
         <v>35</v>
       </c>
@@ -33109,11 +32201,7 @@
           <t>July 9 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1659" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="n">
         <v>35</v>
       </c>
@@ -33132,11 +32220,7 @@
           <t>July 9 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1660" t="inlineStr">
-        <is>
-          <t>Tzivia bas Yossel Kutcher</t>
-        </is>
-      </c>
+      <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="n">
         <v>35</v>
       </c>
@@ -33763,11 +32847,7 @@
           <t>July 15 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1693" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1693" t="inlineStr"/>
       <c r="E1693" t="n">
         <v>35</v>
       </c>
@@ -33786,11 +32866,7 @@
           <t>July 15 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1694" t="inlineStr">
-        <is>
-          <t>Shimon Lieb ben Velvel Gober</t>
-        </is>
-      </c>
+      <c r="D1694" t="inlineStr"/>
       <c r="E1694" t="n">
         <v>35</v>
       </c>
@@ -33999,11 +33075,7 @@
           <t>July 17 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1705" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1705" t="inlineStr"/>
       <c r="E1705" t="n">
         <v>35</v>
       </c>
@@ -34022,11 +33094,7 @@
           <t>July 17 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1706" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Itka bas Leibel+E853 </t>
-        </is>
-      </c>
+      <c r="D1706" t="inlineStr"/>
       <c r="E1706" t="n">
         <v>35</v>
       </c>
@@ -34235,11 +33303,7 @@
           <t>July 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1717" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1717" t="inlineStr"/>
       <c r="E1717" t="n">
         <v>35</v>
       </c>
@@ -34258,11 +33322,7 @@
           <t>July 19 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1718" t="inlineStr">
-        <is>
-          <t>Mordechai Aharon ben Gedalyah</t>
-        </is>
-      </c>
+      <c r="D1718" t="inlineStr"/>
       <c r="E1718" t="n">
         <v>35</v>
       </c>
@@ -34528,11 +33588,7 @@
           <t>July 22 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1732" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1732" t="inlineStr"/>
       <c r="E1732" t="n">
         <v>35</v>
       </c>
@@ -34551,11 +33607,7 @@
           <t>July 22 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1733" t="inlineStr">
-        <is>
-          <t>R' E361Eliyohu ben Shaul Engel</t>
-        </is>
-      </c>
+      <c r="D1733" t="inlineStr"/>
       <c r="E1733" t="n">
         <v>35</v>
       </c>
@@ -34954,11 +34006,7 @@
           <t>July 26 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1754" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1754" t="inlineStr"/>
       <c r="E1754" t="n">
         <v>35</v>
       </c>
@@ -34977,11 +34025,7 @@
           <t>July 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1755" t="inlineStr">
-        <is>
-          <t>Gittel bas Shmuel</t>
-        </is>
-      </c>
+      <c r="D1755" t="inlineStr"/>
       <c r="E1755" t="n">
         <v>35</v>
       </c>
@@ -35038,11 +34082,7 @@
           <t>July 27 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1758" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1758" t="inlineStr"/>
       <c r="E1758" t="n">
         <v>35</v>
       </c>
@@ -35061,11 +34101,7 @@
           <t>July 27 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1759" t="inlineStr">
-        <is>
-          <t>Dorothy Dressler</t>
-        </is>
-      </c>
+      <c r="D1759" t="inlineStr"/>
       <c r="E1759" t="n">
         <v>35</v>
       </c>
@@ -35179,7 +34215,11 @@
           <t>July 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1765" t="inlineStr"/>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Jacques Bendahan</t>
+        </is>
+      </c>
       <c r="E1765" t="n">
         <v>35</v>
       </c>
@@ -35768,11 +34808,7 @@
           <t>August 3 - Line 4 (25)</t>
         </is>
       </c>
-      <c r="D1796" t="inlineStr">
-        <is>
-          <t>Tzipora Meschino</t>
-        </is>
-      </c>
+      <c r="D1796" t="inlineStr"/>
       <c r="E1796" t="n">
         <v>25</v>
       </c>
@@ -35810,11 +34846,7 @@
           <t>August 3 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1798" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1798" t="inlineStr"/>
       <c r="E1798" t="n">
         <v>35</v>
       </c>
@@ -35833,11 +34865,7 @@
           <t>August 3 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1799" t="inlineStr">
-        <is>
-          <t>Schmuel ben Mayir</t>
-        </is>
-      </c>
+      <c r="D1799" t="inlineStr"/>
       <c r="E1799" t="n">
         <v>35</v>
       </c>
@@ -35970,11 +34998,7 @@
           <t>August 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1806" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1806" t="inlineStr"/>
       <c r="E1806" t="n">
         <v>35</v>
       </c>
@@ -35993,11 +35017,7 @@
           <t>August 5 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1807" t="inlineStr">
-        <is>
-          <t>Zissel ben Shulum</t>
-        </is>
-      </c>
+      <c r="D1807" t="inlineStr"/>
       <c r="E1807" t="n">
         <v>35</v>
       </c>
@@ -36035,11 +35055,7 @@
           <t xml:space="preserve">August 5 - Line 2 (35) </t>
         </is>
       </c>
-      <c r="D1809" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1809" t="inlineStr"/>
       <c r="E1809" t="n">
         <v>35</v>
       </c>
@@ -36058,11 +35074,7 @@
           <t>August 5 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1810" t="inlineStr">
-        <is>
-          <t>Draizel (Daisy) Kazen</t>
-        </is>
-      </c>
+      <c r="D1810" t="inlineStr"/>
       <c r="E1810" t="n">
         <v>35</v>
       </c>
@@ -36157,7 +35169,11 @@
           <t>August 6 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1815" t="inlineStr"/>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yahrtzeit of </t>
+        </is>
+      </c>
       <c r="E1815" t="n">
         <v>35</v>
       </c>
@@ -36176,7 +35192,11 @@
           <t>August 6 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1816" t="inlineStr"/>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>Aimee Madeline Richmond</t>
+        </is>
+      </c>
       <c r="E1816" t="n">
         <v>35</v>
       </c>
@@ -36765,11 +35785,7 @@
           <t>August 12 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1847" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1847" t="inlineStr"/>
       <c r="E1847" t="n">
         <v>35</v>
       </c>
@@ -36788,11 +35804,7 @@
           <t>August 12 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1848" t="inlineStr">
-        <is>
-          <t>Ben Tzion Anati</t>
-        </is>
-      </c>
+      <c r="D1848" t="inlineStr"/>
       <c r="E1848" t="n">
         <v>35</v>
       </c>
@@ -36887,11 +35899,7 @@
           <t>August 13 - Line 2 (20)</t>
         </is>
       </c>
-      <c r="D1853" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1853" t="inlineStr"/>
       <c r="E1853" t="n">
         <v>20</v>
       </c>
@@ -36910,11 +35918,7 @@
           <t>August 13 - Line 1 (20)</t>
         </is>
       </c>
-      <c r="D1854" t="inlineStr">
-        <is>
-          <t>Rivka bas Tzvi Hirsh Lanchman</t>
-        </is>
-      </c>
+      <c r="D1854" t="inlineStr"/>
       <c r="E1854" t="n">
         <v>20</v>
       </c>
@@ -37123,11 +36127,7 @@
           <t>August 15 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1865" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1865" t="inlineStr"/>
       <c r="E1865" t="n">
         <v>35</v>
       </c>
@@ -37146,11 +36146,7 @@
           <t xml:space="preserve">August 15 - Line 1 (35) </t>
         </is>
       </c>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>Etta bas Moshe</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
       <c r="E1866" t="n">
         <v>35</v>
       </c>
@@ -37416,11 +36412,7 @@
           <t>August 18 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1880" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1880" t="inlineStr"/>
       <c r="E1880" t="n">
         <v>35</v>
       </c>
@@ -37439,11 +36431,7 @@
           <t>August 18 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1881" t="inlineStr">
-        <is>
-          <t>Chanoch Moed</t>
-        </is>
-      </c>
+      <c r="D1881" t="inlineStr"/>
       <c r="E1881" t="n">
         <v>35</v>
       </c>
@@ -38298,11 +37286,7 @@
           <t>August 26 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1926" t="inlineStr"/>
       <c r="E1926" t="n">
         <v>35</v>
       </c>
@@ -38321,11 +37305,7 @@
           <t>August 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>Sarah bas Moshe Tex</t>
-        </is>
-      </c>
+      <c r="D1927" t="inlineStr"/>
       <c r="E1927" t="n">
         <v>35</v>
       </c>
@@ -38534,11 +37514,7 @@
           <t>August 28 - Line 2 (26)</t>
         </is>
       </c>
-      <c r="D1938" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="n">
         <v>26</v>
       </c>
@@ -38557,11 +37533,7 @@
           <t>August 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1939" t="inlineStr">
-        <is>
-          <t>Betty Willinski</t>
-        </is>
-      </c>
+      <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="n">
         <v>35</v>
       </c>
@@ -38770,11 +37742,7 @@
           <t>August 30 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1950" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="n">
         <v>35</v>
       </c>
@@ -38793,11 +37761,7 @@
           <t>August 30 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1951" t="inlineStr">
-        <is>
-          <t>Shayna Rochel Doll</t>
-        </is>
-      </c>
+      <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="n">
         <v>35</v>
       </c>
@@ -38835,11 +37799,7 @@
           <t>August 31 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1953" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="n">
         <v>35</v>
       </c>
@@ -38858,11 +37818,7 @@
           <t>August 31 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1954" t="inlineStr">
-        <is>
-          <t>Ze'eva (Alexa) Goffin</t>
-        </is>
-      </c>
+      <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="n">
         <v>35</v>
       </c>
@@ -38957,11 +37913,7 @@
           <t>September 1 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1959" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="n">
         <v>35</v>
       </c>
@@ -38980,11 +37932,7 @@
           <t>September 1 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1960" t="inlineStr">
-        <is>
-          <t>Yitta Chaya Ramer</t>
-        </is>
-      </c>
+      <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="n">
         <v>35</v>
       </c>
@@ -39079,11 +38027,7 @@
           <t>September 2 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1965" t="inlineStr">
-        <is>
-          <t>Happy Anniversary</t>
-        </is>
-      </c>
+      <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="n">
         <v>35</v>
       </c>
@@ -39102,11 +38046,7 @@
           <t>September 2 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1966" t="inlineStr">
-        <is>
-          <t>Dovid &amp; Tzipora Cohen</t>
-        </is>
-      </c>
+      <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="n">
         <v>35</v>
       </c>
@@ -39486,11 +38426,7 @@
           <t>September 6 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1986" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="n">
         <v>35</v>
       </c>
@@ -39509,11 +38445,7 @@
           <t>September 6 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1987" t="inlineStr">
-        <is>
-          <t>Boruch Leace</t>
-        </is>
-      </c>
+      <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="n">
         <v>35</v>
       </c>
@@ -40558,11 +39490,7 @@
           <t>September 16 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D2042" t="inlineStr"/>
       <c r="E2042" t="n">
         <v>35</v>
       </c>
@@ -40581,11 +39509,7 @@
           <t>September 16 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>Sarah Horwitz</t>
-        </is>
-      </c>
+      <c r="D2043" t="inlineStr"/>
       <c r="E2043" t="n">
         <v>35</v>
       </c>
@@ -40908,11 +39832,7 @@
           <t>September 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D2060" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D2060" t="inlineStr"/>
       <c r="E2060" t="n">
         <v>35</v>
       </c>
@@ -40931,11 +39851,7 @@
           <t>September 19 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2061" t="inlineStr">
-        <is>
-          <t>Yirmiyahu ben Avraham Gurevich</t>
-        </is>
-      </c>
+      <c r="D2061" t="inlineStr"/>
       <c r="E2061" t="n">
         <v>35</v>
       </c>
@@ -41106,11 +40022,7 @@
           <t>September 21 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D2070" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D2070" t="inlineStr"/>
       <c r="E2070" t="n">
         <v>35</v>
       </c>
@@ -41129,11 +40041,7 @@
           <t>September 21 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2071" t="inlineStr">
-        <is>
-          <t>Eliezer Mellitz</t>
-        </is>
-      </c>
+      <c r="D2071" t="inlineStr"/>
       <c r="E2071" t="n">
         <v>35</v>
       </c>
@@ -41171,11 +40079,7 @@
           <t>September 22 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D2073" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D2073" t="inlineStr"/>
       <c r="E2073" t="n">
         <v>35</v>
       </c>
@@ -41194,11 +40098,7 @@
           <t>September 22 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D2074" t="inlineStr">
-        <is>
-          <t>Dina Gutnick</t>
-        </is>
-      </c>
+      <c r="D2074" t="inlineStr"/>
       <c r="E2074" t="n">
         <v>35</v>
       </c>
@@ -41236,11 +40136,7 @@
           <t>September 22 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D2076" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Birthday </t>
-        </is>
-      </c>
+      <c r="D2076" t="inlineStr"/>
       <c r="E2076" t="n">
         <v>35</v>
       </c>
@@ -41259,11 +40155,7 @@
           <t>September 22 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2077" t="inlineStr">
-        <is>
-          <t>Yosef Yitzchok Engel</t>
-        </is>
-      </c>
+      <c r="D2077" t="inlineStr"/>
       <c r="E2077" t="n">
         <v>35</v>
       </c>
@@ -41491,7 +40383,11 @@
           <t>September 24 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2089" t="inlineStr"/>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>Yahrtzeit of Libby Echenberg</t>
+        </is>
+      </c>
       <c r="E2089" t="n">
         <v>35</v>
       </c>
@@ -41586,11 +40482,7 @@
           <t>September 25 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D2094" t="inlineStr">
-        <is>
-          <t>In loving memory of Zev Gavriel</t>
-        </is>
-      </c>
+      <c r="D2094" t="inlineStr"/>
       <c r="E2094" t="n">
         <v>35</v>
       </c>
@@ -41609,11 +40501,7 @@
           <t>September 25 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2095" t="inlineStr">
-        <is>
-          <t>Menachem Mendel Halevi</t>
-        </is>
-      </c>
+      <c r="D2095" t="inlineStr"/>
       <c r="E2095" t="n">
         <v>35</v>
       </c>
@@ -41708,11 +40596,7 @@
           <t>September 26 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D2100" t="inlineStr">
-        <is>
-          <t>In loving memory of</t>
-        </is>
-      </c>
+      <c r="D2100" t="inlineStr"/>
       <c r="E2100" t="n">
         <v>35</v>
       </c>
@@ -41731,11 +40615,7 @@
           <t>September 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2101" t="inlineStr">
-        <is>
-          <t>Leah bas Shmuel</t>
-        </is>
-      </c>
+      <c r="D2101" t="inlineStr"/>
       <c r="E2101" t="n">
         <v>35</v>
       </c>
@@ -41889,7 +40769,7 @@
       </c>
       <c r="D2109" t="inlineStr">
         <is>
-          <t>In loving memory</t>
+          <t>Yahrtzeit of Felicia Aaron</t>
         </is>
       </c>
       <c r="E2109" t="n">
@@ -41912,7 +40792,7 @@
       </c>
       <c r="D2110" t="inlineStr">
         <is>
-          <t>Soro Bracah bas Yosef Volv</t>
+          <t>Tzipora Bas Shimon Leib</t>
         </is>
       </c>
       <c r="E2110" t="n">

--- a/uploads/output.xlsx
+++ b/uploads/output.xlsx
@@ -588,7 +588,11 @@
           <t>September 2 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E8" t="n">
         <v>35</v>
       </c>
@@ -607,7 +611,11 @@
           <t>September 2 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ella Kalif</t>
+        </is>
+      </c>
       <c r="E9" t="n">
         <v>35</v>
       </c>
@@ -1215,11 +1223,7 @@
           <t>September 7 - Line 1 (25)</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Libby Echenberg</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>25</v>
       </c>
@@ -1618,11 +1622,7 @@
           <t>September 11 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Felicia Aaron</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>35</v>
       </c>
@@ -1641,11 +1641,7 @@
           <t>September 11 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Tzipora Bas Shimon Leib</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>35</v>
       </c>
@@ -1664,7 +1660,11 @@
           <t>September 12 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E64" t="n">
         <v>35</v>
       </c>
@@ -1683,7 +1683,11 @@
           <t>September 12 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Larry Barnett</t>
+        </is>
+      </c>
       <c r="E65" t="n">
         <v>35</v>
       </c>
@@ -2310,7 +2314,11 @@
           <t>September 19 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E98" t="n">
         <v>35</v>
       </c>
@@ -2329,7 +2337,11 @@
           <t>September 19 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Dave Lebowitz</t>
+        </is>
+      </c>
       <c r="E99" t="n">
         <v>35</v>
       </c>
@@ -2842,7 +2854,11 @@
           <t>September 24 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Helen Sapolnick</t>
+        </is>
+      </c>
       <c r="E126" t="n">
         <v>35</v>
       </c>
@@ -2918,7 +2934,11 @@
           <t>September 25 - Line 3 (30)</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E130" t="n">
         <v>30</v>
       </c>
@@ -2937,7 +2957,11 @@
           <t>September 25 - Line 2 (30)</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Susan Holland</t>
+        </is>
+      </c>
       <c r="E131" t="n">
         <v>30</v>
       </c>
@@ -3070,11 +3094,7 @@
           <t>September 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Happy Birthday David Vineberg</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
         <v>35</v>
       </c>
@@ -3321,7 +3341,11 @@
           <t>September 29 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Harry Wishnev</t>
+        </is>
+      </c>
       <c r="E151" t="n">
         <v>35</v>
       </c>
@@ -3454,7 +3478,11 @@
           <t>October 1 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E158" t="n">
         <v>35</v>
       </c>
@@ -3473,7 +3501,11 @@
           <t>October 1 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Danny Budanitsky</t>
+        </is>
+      </c>
       <c r="E159" t="n">
         <v>35</v>
       </c>
@@ -3720,7 +3752,11 @@
           <t>October 4 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E172" t="n">
         <v>35</v>
       </c>
@@ -3739,7 +3775,11 @@
           <t>October 4 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Eli Budanitsky</t>
+        </is>
+      </c>
       <c r="E173" t="n">
         <v>35</v>
       </c>
@@ -3758,7 +3798,11 @@
           <t>October 4 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E174" t="n">
         <v>35</v>
       </c>
@@ -3777,7 +3821,11 @@
           <t>October 4 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Gilah Fernande Bohbot</t>
+        </is>
+      </c>
       <c r="E175" t="n">
         <v>35</v>
       </c>
@@ -3986,7 +4034,11 @@
           <t>October 7 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E186" t="n">
         <v>35</v>
       </c>
@@ -4005,7 +4057,11 @@
           <t>October 7 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Sheryl Smolensky</t>
+        </is>
+      </c>
       <c r="E187" t="n">
         <v>35</v>
       </c>
@@ -4062,7 +4118,11 @@
           <t>October 8 - Line 5 (25)</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E190" t="n">
         <v>25</v>
       </c>
@@ -4081,7 +4141,11 @@
           <t>October 8 - Line 4 (25)</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Jeanette Holland</t>
+        </is>
+      </c>
       <c r="E191" t="n">
         <v>25</v>
       </c>
@@ -4385,7 +4449,11 @@
           <t>October 11 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E207" t="n">
         <v>35</v>
       </c>
@@ -4404,7 +4472,11 @@
           <t>October 11 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Alvin Holland</t>
+        </is>
+      </c>
       <c r="E208" t="n">
         <v>35</v>
       </c>
@@ -4423,7 +4495,11 @@
           <t>October 11 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Happy Anniversary</t>
+        </is>
+      </c>
       <c r="E209" t="n">
         <v>35</v>
       </c>
@@ -4442,7 +4518,11 @@
           <t>October 11 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Kari &amp; Paul Saltin</t>
+        </is>
+      </c>
       <c r="E210" t="n">
         <v>35</v>
       </c>
@@ -4461,7 +4541,11 @@
           <t>October 11 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yahrtzeit </t>
+        </is>
+      </c>
       <c r="E211" t="n">
         <v>35</v>
       </c>
@@ -4480,7 +4564,11 @@
           <t>October 11 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Richard Hawkins</t>
+        </is>
+      </c>
       <c r="E212" t="n">
         <v>35</v>
       </c>
@@ -4537,7 +4625,11 @@
           <t>October 12 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E215" t="n">
         <v>35</v>
       </c>
@@ -4556,7 +4648,11 @@
           <t>October 12 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Norman Mayberg</t>
+        </is>
+      </c>
       <c r="E216" t="n">
         <v>35</v>
       </c>
@@ -4575,7 +4671,11 @@
           <t>October 12 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E217" t="n">
         <v>35</v>
       </c>
@@ -4594,7 +4694,11 @@
           <t>October 12 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>David Abayev</t>
+        </is>
+      </c>
       <c r="E218" t="n">
         <v>35</v>
       </c>
@@ -4670,7 +4774,11 @@
           <t>October 13 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E222" t="n">
         <v>35</v>
       </c>
@@ -4689,7 +4797,11 @@
           <t>October 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Charles Chalom Benaroch</t>
+        </is>
+      </c>
       <c r="E223" t="n">
         <v>35</v>
       </c>
@@ -5126,7 +5238,11 @@
           <t>October 18 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E246" t="n">
         <v>35</v>
       </c>
@@ -5145,7 +5261,11 @@
           <t>October 18 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Beverly Cogan</t>
+        </is>
+      </c>
       <c r="E247" t="n">
         <v>35</v>
       </c>
@@ -5506,7 +5626,11 @@
           <t>October 21 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E266" t="n">
         <v>35</v>
       </c>
@@ -5525,7 +5649,11 @@
           <t>October 21 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Steven Hawkins</t>
+        </is>
+      </c>
       <c r="E267" t="n">
         <v>35</v>
       </c>
@@ -5791,7 +5919,11 @@
           <t>October 24 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E281" t="n">
         <v>35</v>
       </c>
@@ -5810,7 +5942,11 @@
           <t>October 24 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Jared Budanitsky</t>
+        </is>
+      </c>
       <c r="E282" t="n">
         <v>35</v>
       </c>
@@ -5829,7 +5965,11 @@
           <t>October 24 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E283" t="n">
         <v>35</v>
       </c>
@@ -5848,7 +5988,11 @@
           <t>October 24 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Irene Lebowitz</t>
+        </is>
+      </c>
       <c r="E284" t="n">
         <v>35</v>
       </c>
@@ -6323,7 +6467,11 @@
           <t>October 29 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E309" t="n">
         <v>35</v>
       </c>
@@ -6342,7 +6490,11 @@
           <t>October 29 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Aaron Mitchell Rudnick</t>
+        </is>
+      </c>
       <c r="E310" t="n">
         <v>35</v>
       </c>
@@ -6437,7 +6589,11 @@
           <t>October 30 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E315" t="n">
         <v>35</v>
       </c>
@@ -6456,7 +6612,11 @@
           <t>October 30 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Rachel Burke</t>
+        </is>
+      </c>
       <c r="E316" t="n">
         <v>35</v>
       </c>
@@ -6475,7 +6635,11 @@
           <t>October 30 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E317" t="n">
         <v>35</v>
       </c>
@@ -6494,7 +6658,11 @@
           <t>October 30 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Andrew Kurs</t>
+        </is>
+      </c>
       <c r="E318" t="n">
         <v>35</v>
       </c>
@@ -7007,7 +7175,11 @@
           <t>November 4 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Sholom Leverton</t>
+        </is>
+      </c>
       <c r="E345" t="n">
         <v>35</v>
       </c>
@@ -7026,7 +7198,11 @@
           <t>November 4 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E346" t="n">
         <v>35</v>
       </c>
@@ -7045,7 +7221,11 @@
           <t>November 4 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Sholom Kaye</t>
+        </is>
+      </c>
       <c r="E347" t="n">
         <v>35</v>
       </c>
@@ -7102,7 +7282,11 @@
           <t>November 5 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr"/>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E350" t="n">
         <v>35</v>
       </c>
@@ -7121,7 +7305,11 @@
           <t>November 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr"/>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Phoebe Herman</t>
+        </is>
+      </c>
       <c r="E351" t="n">
         <v>35</v>
       </c>
@@ -7197,11 +7385,7 @@
           <t>November 5 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>Happy Birthday Shulamit Perlo</t>
-        </is>
-      </c>
+      <c r="D355" t="inlineStr"/>
       <c r="E355" t="n">
         <v>35</v>
       </c>
@@ -7600,7 +7784,11 @@
           <t>November 9 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D376" t="inlineStr"/>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E376" t="n">
         <v>35</v>
       </c>
@@ -7619,7 +7807,11 @@
           <t>November 9 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D377" t="inlineStr"/>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Bobby Dinerstein</t>
+        </is>
+      </c>
       <c r="E377" t="n">
         <v>35</v>
       </c>
@@ -7640,7 +7832,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Yahrtzeit of Dave Szalavetz</t>
+          <t>Happy Birthday</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -7663,7 +7855,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Yitzchok b. Menachem Mendel HaKohen</t>
+          <t>Rivkah Leverton</t>
         </is>
       </c>
       <c r="E379" t="n">
@@ -7988,7 +8180,11 @@
           <t>November 13 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E396" t="n">
         <v>35</v>
       </c>
@@ -8007,7 +8203,11 @@
           <t>November 13 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Rebbetzin Ruth Fisher</t>
+        </is>
+      </c>
       <c r="E397" t="n">
         <v>35</v>
       </c>
@@ -8026,7 +8226,11 @@
           <t>November 13 - Line 4 (25)</t>
         </is>
       </c>
-      <c r="D398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E398" t="n">
         <v>25</v>
       </c>
@@ -8045,7 +8249,11 @@
           <t>November 13 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D399" t="inlineStr"/>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Aliza Leverton</t>
+        </is>
+      </c>
       <c r="E399" t="n">
         <v>35</v>
       </c>
@@ -8273,11 +8481,7 @@
           <t>November 15 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>Happy Birthday Leiba (Lara)</t>
-        </is>
-      </c>
+      <c r="D411" t="inlineStr"/>
       <c r="E411" t="n">
         <v>35</v>
       </c>
@@ -8315,11 +8519,7 @@
           <t>November 15 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Eda Tarlo</t>
-        </is>
-      </c>
+      <c r="D413" t="inlineStr"/>
       <c r="E413" t="n">
         <v>35</v>
       </c>
@@ -8414,11 +8614,7 @@
           <t>November 16 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Arnold Harold Aaron</t>
-        </is>
-      </c>
+      <c r="D418" t="inlineStr"/>
       <c r="E418" t="n">
         <v>35</v>
       </c>
@@ -8437,11 +8633,7 @@
           <t>November 16 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>Aaron Ben Dov</t>
-        </is>
-      </c>
+      <c r="D419" t="inlineStr"/>
       <c r="E419" t="n">
         <v>35</v>
       </c>
@@ -8574,7 +8766,11 @@
           <t>November 18 - Line 5 (25)</t>
         </is>
       </c>
-      <c r="D426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Fanny Medina</t>
+        </is>
+      </c>
       <c r="E426" t="n">
         <v>25</v>
       </c>
@@ -8650,11 +8846,7 @@
           <t>November 18 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>Happy Birthday Noam</t>
-        </is>
-      </c>
+      <c r="D430" t="inlineStr"/>
       <c r="E430" t="n">
         <v>35</v>
       </c>
@@ -8787,7 +8979,11 @@
           <t>November 20 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D437" t="inlineStr"/>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E437" t="n">
         <v>35</v>
       </c>
@@ -8806,7 +9002,11 @@
           <t>November 20 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D438" t="inlineStr"/>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Sarah Felber</t>
+        </is>
+      </c>
       <c r="E438" t="n">
         <v>35</v>
       </c>
@@ -8901,7 +9101,11 @@
           <t>November 21 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D443" t="inlineStr"/>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E443" t="n">
         <v>35</v>
       </c>
@@ -8920,7 +9124,11 @@
           <t>November 21 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr"/>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Leonard Cagan</t>
+        </is>
+      </c>
       <c r="E444" t="n">
         <v>35</v>
       </c>
@@ -9243,7 +9451,11 @@
           <t>November 24 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D461" t="inlineStr"/>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E461" t="n">
         <v>35</v>
       </c>
@@ -9262,7 +9474,11 @@
           <t>November 24 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D462" t="inlineStr"/>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Selma Yellin</t>
+        </is>
+      </c>
       <c r="E462" t="n">
         <v>35</v>
       </c>
@@ -9281,7 +9497,11 @@
           <t>November 24 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E463" t="n">
         <v>35</v>
       </c>
@@ -9300,7 +9520,11 @@
           <t>November 24 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D464" t="inlineStr"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Lois Saltin</t>
+        </is>
+      </c>
       <c r="E464" t="n">
         <v>35</v>
       </c>
@@ -10421,11 +10645,7 @@
           <t>December 4 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>Happy Birthday Simcha Chaim (Sam)</t>
-        </is>
-      </c>
+      <c r="D523" t="inlineStr"/>
       <c r="E523" t="n">
         <v>35</v>
       </c>
@@ -10444,7 +10664,11 @@
           <t>December 5 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D524" t="inlineStr"/>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E524" t="n">
         <v>35</v>
       </c>
@@ -10463,7 +10687,11 @@
           <t>December 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D525" t="inlineStr"/>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Esther Kalif</t>
+        </is>
+      </c>
       <c r="E525" t="n">
         <v>35</v>
       </c>
@@ -10482,7 +10710,11 @@
           <t>December 5 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D526" t="inlineStr"/>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E526" t="n">
         <v>35</v>
       </c>
@@ -10501,7 +10733,11 @@
           <t>December 5 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D527" t="inlineStr"/>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Alfred Sapolnick</t>
+        </is>
+      </c>
       <c r="E527" t="n">
         <v>35</v>
       </c>
@@ -11280,7 +11516,11 @@
           <t>December 16 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D568" t="inlineStr"/>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Helene Benaroch de Natera</t>
+        </is>
+      </c>
       <c r="E568" t="n">
         <v>35</v>
       </c>
@@ -12135,7 +12375,11 @@
           <t>December 25 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E613" t="n">
         <v>35</v>
       </c>
@@ -12154,7 +12398,11 @@
           <t>December 25 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D614" t="inlineStr"/>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Amnum Ben Ruben Moshiyakhov</t>
+        </is>
+      </c>
       <c r="E614" t="n">
         <v>35</v>
       </c>
@@ -12173,7 +12421,11 @@
           <t>December 25 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D615" t="inlineStr"/>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E615" t="n">
         <v>35</v>
       </c>
@@ -12192,7 +12444,11 @@
           <t>December 25 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Ann Kaplowitz</t>
+        </is>
+      </c>
       <c r="E616" t="n">
         <v>35</v>
       </c>
@@ -13161,11 +13417,7 @@
           <t>January 3 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>Yahrtzeit Nanette Ogulnik</t>
-        </is>
-      </c>
+      <c r="D667" t="inlineStr"/>
       <c r="E667" t="n">
         <v>35</v>
       </c>
@@ -13412,7 +13664,11 @@
           <t>January 6 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E680" t="n">
         <v>35</v>
       </c>
@@ -13431,7 +13687,11 @@
           <t>January 6 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D681" t="inlineStr"/>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Avraham Leverton</t>
+        </is>
+      </c>
       <c r="E681" t="n">
         <v>35</v>
       </c>
@@ -13602,7 +13862,11 @@
           <t>January 8 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D690" t="inlineStr"/>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E690" t="n">
         <v>35</v>
       </c>
@@ -13621,7 +13885,11 @@
           <t>January 8 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D691" t="inlineStr"/>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Julius Bloom</t>
+        </is>
+      </c>
       <c r="E691" t="n">
         <v>35</v>
       </c>
@@ -13640,7 +13908,11 @@
           <t>January 8 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D692" t="inlineStr"/>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E692" t="n">
         <v>35</v>
       </c>
@@ -13659,7 +13931,11 @@
           <t>January 8 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D693" t="inlineStr"/>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Barry Weissman</t>
+        </is>
+      </c>
       <c r="E693" t="n">
         <v>35</v>
       </c>
@@ -13944,7 +14220,11 @@
           <t>January 11 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E708" t="n">
         <v>35</v>
       </c>
@@ -13963,7 +14243,11 @@
           <t>January 11 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D709" t="inlineStr"/>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>John J. Gavula</t>
+        </is>
+      </c>
       <c r="E709" t="n">
         <v>35</v>
       </c>
@@ -13982,7 +14266,11 @@
           <t>January 11 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D710" t="inlineStr"/>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E710" t="n">
         <v>35</v>
       </c>
@@ -14001,7 +14289,11 @@
           <t>January 11 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Abraham Felber</t>
+        </is>
+      </c>
       <c r="E711" t="n">
         <v>35</v>
       </c>
@@ -14020,11 +14312,7 @@
           <t>January 11 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Yisrael (Richard) King</t>
-        </is>
-      </c>
+      <c r="D712" t="inlineStr"/>
       <c r="E712" t="n">
         <v>35</v>
       </c>
@@ -14157,7 +14445,11 @@
           <t>January 13 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D719" t="inlineStr"/>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Pearl Granoff</t>
+        </is>
+      </c>
       <c r="E719" t="n">
         <v>35</v>
       </c>
@@ -14366,7 +14658,11 @@
           <t>January 15 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E730" t="n">
         <v>35</v>
       </c>
@@ -14385,7 +14681,11 @@
           <t>January 15 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D731" t="inlineStr"/>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Aaron Budanitsky</t>
+        </is>
+      </c>
       <c r="E731" t="n">
         <v>35</v>
       </c>
@@ -14499,7 +14799,11 @@
           <t>January 16 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D737" t="inlineStr"/>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E737" t="n">
         <v>35</v>
       </c>
@@ -14518,7 +14822,11 @@
           <t>January 16 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Mark Safran</t>
+        </is>
+      </c>
       <c r="E738" t="n">
         <v>35</v>
       </c>
@@ -14708,7 +15016,11 @@
           <t>January 18 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D748" t="inlineStr"/>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E748" t="n">
         <v>35</v>
       </c>
@@ -14727,7 +15039,11 @@
           <t>January 18 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D749" t="inlineStr"/>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Tatiana Friedman</t>
+        </is>
+      </c>
       <c r="E749" t="n">
         <v>35</v>
       </c>
@@ -14898,11 +15214,7 @@
           <t>January 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D758" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Mayer Ginsberg</t>
-        </is>
-      </c>
+      <c r="D758" t="inlineStr"/>
       <c r="E758" t="n">
         <v>35</v>
       </c>
@@ -14921,11 +15233,7 @@
           <t>January 19 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>Eliyahu Mayer ben Tzvi</t>
-        </is>
-      </c>
+      <c r="D759" t="inlineStr"/>
       <c r="E759" t="n">
         <v>35</v>
       </c>
@@ -15153,7 +15461,11 @@
           <t>January 22 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D771" t="inlineStr"/>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Anniversary</t>
+        </is>
+      </c>
       <c r="E771" t="n">
         <v>35</v>
       </c>
@@ -15172,7 +15484,11 @@
           <t>January 22 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D772" t="inlineStr"/>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Sholom &amp; Aliza Leverton</t>
+        </is>
+      </c>
       <c r="E772" t="n">
         <v>35</v>
       </c>
@@ -15362,11 +15678,7 @@
           <t>January 23 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>Happy Birthday Hanna Houdayer</t>
-        </is>
-      </c>
+      <c r="D782" t="inlineStr"/>
       <c r="E782" t="n">
         <v>35</v>
       </c>
@@ -15385,7 +15697,11 @@
           <t>January 24 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D783" t="inlineStr"/>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E783" t="n">
         <v>35</v>
       </c>
@@ -15404,7 +15720,11 @@
           <t>January 24 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D784" t="inlineStr"/>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Amy Abayev</t>
+        </is>
+      </c>
       <c r="E784" t="n">
         <v>35</v>
       </c>
@@ -15461,11 +15781,7 @@
           <t>January 24 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D787" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Herbert Rubin</t>
-        </is>
-      </c>
+      <c r="D787" t="inlineStr"/>
       <c r="E787" t="n">
         <v>35</v>
       </c>
@@ -15484,11 +15800,7 @@
           <t>January 24 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D788" t="inlineStr">
-        <is>
-          <t>Chaim ben Dovid Hakohen</t>
-        </is>
-      </c>
+      <c r="D788" t="inlineStr"/>
       <c r="E788" t="n">
         <v>35</v>
       </c>
@@ -15716,11 +16028,7 @@
           <t>January 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>Happy Birthday Ruth Doerfler</t>
-        </is>
-      </c>
+      <c r="D800" t="inlineStr"/>
       <c r="E800" t="n">
         <v>35</v>
       </c>
@@ -15929,7 +16237,11 @@
           <t>January 29 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D811" t="inlineStr"/>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E811" t="n">
         <v>35</v>
       </c>
@@ -15948,7 +16260,11 @@
           <t>January 29 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D812" t="inlineStr"/>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Celia Golbert</t>
+        </is>
+      </c>
       <c r="E812" t="n">
         <v>35</v>
       </c>
@@ -16138,7 +16454,11 @@
           <t>January 31 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D822" t="inlineStr"/>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E822" t="n">
         <v>35</v>
       </c>
@@ -16157,7 +16477,11 @@
           <t>January 31 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D823" t="inlineStr"/>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Bertha Shapiro</t>
+        </is>
+      </c>
       <c r="E823" t="n">
         <v>35</v>
       </c>
@@ -16233,11 +16557,7 @@
           <t>January 31 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>Happy Birthday Nathaniel Bendahan</t>
-        </is>
-      </c>
+      <c r="D827" t="inlineStr"/>
       <c r="E827" t="n">
         <v>35</v>
       </c>
@@ -16332,11 +16652,7 @@
           <t>February 1 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Joe Schlesinger</t>
-        </is>
-      </c>
+      <c r="D832" t="inlineStr"/>
       <c r="E832" t="n">
         <v>35</v>
       </c>
@@ -16355,11 +16671,7 @@
           <t>February 1 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>Yosef ben Yechiel</t>
-        </is>
-      </c>
+      <c r="D833" t="inlineStr"/>
       <c r="E833" t="n">
         <v>35</v>
       </c>
@@ -16568,7 +16880,11 @@
           <t>February 4 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D844" t="inlineStr"/>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E844" t="n">
         <v>35</v>
       </c>
@@ -16587,7 +16903,11 @@
           <t>February 4 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D845" t="inlineStr"/>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>Toby Kane</t>
+        </is>
+      </c>
       <c r="E845" t="n">
         <v>35</v>
       </c>
@@ -16682,7 +17002,11 @@
           <t>February 5 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D850" t="inlineStr"/>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E850" t="n">
         <v>35</v>
       </c>
@@ -16701,7 +17025,11 @@
           <t>February 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D851" t="inlineStr"/>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Rebecca Bershad</t>
+        </is>
+      </c>
       <c r="E851" t="n">
         <v>35</v>
       </c>
@@ -17385,7 +17713,11 @@
           <t>February 12 - Line 6 (25)</t>
         </is>
       </c>
-      <c r="D887" t="inlineStr"/>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E887" t="n">
         <v>25</v>
       </c>
@@ -17404,7 +17736,11 @@
           <t>February 12 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D888" t="inlineStr"/>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Adam Bershad</t>
+        </is>
+      </c>
       <c r="E888" t="n">
         <v>35</v>
       </c>
@@ -17461,11 +17797,7 @@
           <t>February 12 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D891" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Grace Lassner</t>
-        </is>
-      </c>
+      <c r="D891" t="inlineStr"/>
       <c r="E891" t="n">
         <v>35</v>
       </c>
@@ -17484,11 +17816,7 @@
           <t>February 12 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D892" t="inlineStr">
-        <is>
-          <t>Gittel bas Aharon Tzvi</t>
-        </is>
-      </c>
+      <c r="D892" t="inlineStr"/>
       <c r="E892" t="n">
         <v>35</v>
       </c>
@@ -17621,7 +17949,11 @@
           <t>February 14 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D899" t="inlineStr"/>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E899" t="n">
         <v>35</v>
       </c>
@@ -17640,7 +17972,11 @@
           <t>February 14 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D900" t="inlineStr"/>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Aaron Abayev</t>
+        </is>
+      </c>
       <c r="E900" t="n">
         <v>35</v>
       </c>
@@ -18058,7 +18394,11 @@
           <t>February 18 - Line 6 (25)</t>
         </is>
       </c>
-      <c r="D922" t="inlineStr"/>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Happy Anniversary</t>
+        </is>
+      </c>
       <c r="E922" t="n">
         <v>25</v>
       </c>
@@ -18077,7 +18417,11 @@
           <t>February 18 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D923" t="inlineStr"/>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Enid &amp; William Weinstein</t>
+        </is>
+      </c>
       <c r="E923" t="n">
         <v>35</v>
       </c>
@@ -18096,7 +18440,11 @@
           <t>February 18 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D924" t="inlineStr"/>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E924" t="n">
         <v>35</v>
       </c>
@@ -18115,7 +18463,11 @@
           <t>February 18 - Line 3 (25)</t>
         </is>
       </c>
-      <c r="D925" t="inlineStr"/>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>Hym Josef Ben Joshua</t>
+        </is>
+      </c>
       <c r="E925" t="n">
         <v>25</v>
       </c>
@@ -18172,7 +18524,11 @@
           <t>February 19 - Line 6 (25)</t>
         </is>
       </c>
-      <c r="D928" t="inlineStr"/>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E928" t="n">
         <v>25</v>
       </c>
@@ -18191,7 +18547,11 @@
           <t>February 19 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D929" t="inlineStr"/>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Thomas Tanenhaus M.D.</t>
+        </is>
+      </c>
       <c r="E929" t="n">
         <v>35</v>
       </c>
@@ -18381,11 +18741,7 @@
           <t>February 20 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D939" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Isidore Echenberg</t>
-        </is>
-      </c>
+      <c r="D939" t="inlineStr"/>
       <c r="E939" t="n">
         <v>35</v>
       </c>
@@ -18746,7 +19102,11 @@
           <t>February 24 - Line 5 (25)</t>
         </is>
       </c>
-      <c r="D958" t="inlineStr"/>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E958" t="n">
         <v>25</v>
       </c>
@@ -18765,7 +19125,11 @@
           <t>February 24 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D959" t="inlineStr"/>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>Edna Hawkins</t>
+        </is>
+      </c>
       <c r="E959" t="n">
         <v>35</v>
       </c>
@@ -18955,7 +19319,11 @@
           <t>February 26 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D969" t="inlineStr"/>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E969" t="n">
         <v>35</v>
       </c>
@@ -18974,7 +19342,11 @@
           <t>February 26 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D970" t="inlineStr"/>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>Zvi Pomper</t>
+        </is>
+      </c>
       <c r="E970" t="n">
         <v>35</v>
       </c>
@@ -19126,7 +19498,11 @@
           <t>February 27 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D978" t="inlineStr"/>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E978" t="n">
         <v>35</v>
       </c>
@@ -19145,7 +19521,11 @@
           <t>February 27 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D979" t="inlineStr"/>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>Eliezer Lior Ben Joshua</t>
+        </is>
+      </c>
       <c r="E979" t="n">
         <v>35</v>
       </c>
@@ -19166,7 +19546,7 @@
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t>Happy Birthday Yeshayahu (Jack)</t>
+          <t>Yahrtzeit Jacob Golbert</t>
         </is>
       </c>
       <c r="E980" t="n">
@@ -19187,7 +19567,11 @@
           <t>February 28 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D981" t="inlineStr"/>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E981" t="n">
         <v>35</v>
       </c>
@@ -19206,7 +19590,11 @@
           <t>February 28 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D982" t="inlineStr"/>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>Mordechai son of Dov Bear</t>
+        </is>
+      </c>
       <c r="E982" t="n">
         <v>35</v>
       </c>
@@ -19301,7 +19689,11 @@
           <t>February 29 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D987" t="inlineStr"/>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E987" t="n">
         <v>35</v>
       </c>
@@ -19320,7 +19712,11 @@
           <t>February 29 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D988" t="inlineStr"/>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>Tillie Shapiro</t>
+        </is>
+      </c>
       <c r="E988" t="n">
         <v>35</v>
       </c>
@@ -19339,7 +19735,11 @@
           <t>February 29 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D989" t="inlineStr"/>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E989" t="n">
         <v>35</v>
       </c>
@@ -19358,7 +19758,11 @@
           <t>February 29 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D990" t="inlineStr"/>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>Edward Kempner</t>
+        </is>
+      </c>
       <c r="E990" t="n">
         <v>35</v>
       </c>
@@ -19624,7 +20028,11 @@
           <t>March 3 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1004" t="inlineStr"/>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1004" t="n">
         <v>35</v>
       </c>
@@ -19643,7 +20051,11 @@
           <t>March 3 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1005" t="inlineStr"/>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>Irving Granoff</t>
+        </is>
+      </c>
       <c r="E1005" t="n">
         <v>35</v>
       </c>
@@ -19966,7 +20378,11 @@
           <t>March 6 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1022" t="n">
         <v>35</v>
       </c>
@@ -19985,7 +20401,11 @@
           <t>March 6 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1023" t="inlineStr"/>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>Esther Wishnev</t>
+        </is>
+      </c>
       <c r="E1023" t="n">
         <v>35</v>
       </c>
@@ -20422,7 +20842,11 @@
           <t>March 11 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1046" t="inlineStr"/>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1046" t="n">
         <v>35</v>
       </c>
@@ -20441,7 +20865,11 @@
           <t>March 11 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1047" t="inlineStr"/>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>Rose Kempner</t>
+        </is>
+      </c>
       <c r="E1047" t="n">
         <v>35</v>
       </c>
@@ -20650,7 +21078,11 @@
           <t>March 13 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1058" t="inlineStr"/>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1058" t="n">
         <v>35</v>
       </c>
@@ -20669,7 +21101,11 @@
           <t>March 13 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1059" t="inlineStr"/>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>Adam Bershad</t>
+        </is>
+      </c>
       <c r="E1059" t="n">
         <v>35</v>
       </c>
@@ -20726,11 +21162,7 @@
           <t>March 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1062" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Grace Lassner</t>
-        </is>
-      </c>
+      <c r="D1062" t="inlineStr"/>
       <c r="E1062" t="n">
         <v>35</v>
       </c>
@@ -20749,11 +21181,7 @@
           <t>March 13 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1063" t="inlineStr">
-        <is>
-          <t>Gittel bas Aharon Tzvi</t>
-        </is>
-      </c>
+      <c r="D1063" t="inlineStr"/>
       <c r="E1063" t="n">
         <v>35</v>
       </c>
@@ -20886,7 +21314,11 @@
           <t>March 15 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1070" t="inlineStr"/>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1070" t="n">
         <v>35</v>
       </c>
@@ -20905,7 +21337,11 @@
           <t>March 15 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1071" t="inlineStr"/>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>Aaron Abayev</t>
+        </is>
+      </c>
       <c r="E1071" t="n">
         <v>35</v>
       </c>
@@ -21323,7 +21759,11 @@
           <t>March 19 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1093" t="inlineStr"/>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>Happy Anniversary</t>
+        </is>
+      </c>
       <c r="E1093" t="n">
         <v>35</v>
       </c>
@@ -21342,7 +21782,11 @@
           <t>March 19 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1094" t="inlineStr"/>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>Enid &amp; William Weinstein</t>
+        </is>
+      </c>
       <c r="E1094" t="n">
         <v>35</v>
       </c>
@@ -21361,7 +21805,11 @@
           <t>March 19 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1095" t="inlineStr"/>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1095" t="n">
         <v>35</v>
       </c>
@@ -21380,7 +21828,11 @@
           <t>March 19 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>Hym Josef Ben Joshua</t>
+        </is>
+      </c>
       <c r="E1096" t="n">
         <v>35</v>
       </c>
@@ -21437,7 +21889,11 @@
           <t>March 20 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1099" t="n">
         <v>35</v>
       </c>
@@ -21456,7 +21912,11 @@
           <t>March 20 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1100" t="inlineStr"/>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>Thomas Tanenhaus M.D.</t>
+        </is>
+      </c>
       <c r="E1100" t="n">
         <v>35</v>
       </c>
@@ -21608,11 +22068,7 @@
           <t>March 21 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1108" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Isidore Echenberg</t>
-        </is>
-      </c>
+      <c r="D1108" t="inlineStr"/>
       <c r="E1108" t="n">
         <v>35</v>
       </c>
@@ -21859,7 +22315,11 @@
           <t>March 25 - Line 5 (30)</t>
         </is>
       </c>
-      <c r="D1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1121" t="n">
         <v>30</v>
       </c>
@@ -21878,7 +22338,11 @@
           <t>March 25 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>Edna Hawkins</t>
+        </is>
+      </c>
       <c r="E1122" t="n">
         <v>35</v>
       </c>
@@ -22068,7 +22532,11 @@
           <t>March 27 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1132" t="inlineStr"/>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1132" t="n">
         <v>35</v>
       </c>
@@ -22087,7 +22555,11 @@
           <t>March 27 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1133" t="inlineStr"/>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>Zvi Pomper</t>
+        </is>
+      </c>
       <c r="E1133" t="n">
         <v>35</v>
       </c>
@@ -22239,7 +22711,11 @@
           <t>March 28 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1141" t="inlineStr"/>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1141" t="n">
         <v>35</v>
       </c>
@@ -22258,7 +22734,11 @@
           <t>March 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1142" t="inlineStr"/>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>Eliezer Lior Ben Joshua</t>
+        </is>
+      </c>
       <c r="E1142" t="n">
         <v>35</v>
       </c>
@@ -22279,7 +22759,7 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>Happy Birthday Yeshayahu (Jack)</t>
+          <t>Yahrtzeit Jacob Golbert</t>
         </is>
       </c>
       <c r="E1143" t="n">
@@ -22300,7 +22780,11 @@
           <t>March 29 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1144" t="n">
         <v>35</v>
       </c>
@@ -22319,7 +22803,11 @@
           <t>March 29 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>Mordechai son of Dov Bear</t>
+        </is>
+      </c>
       <c r="E1145" t="n">
         <v>35</v>
       </c>
@@ -22414,7 +22902,11 @@
           <t>March 30 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>Edward Kempner</t>
+        </is>
+      </c>
       <c r="E1150" t="n">
         <v>35</v>
       </c>
@@ -22604,7 +23096,11 @@
           <t>April 2 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1160" t="inlineStr"/>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1160" t="n">
         <v>35</v>
       </c>
@@ -22623,7 +23119,11 @@
           <t>April 2 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1161" t="inlineStr"/>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>Irving Granoff</t>
+        </is>
+      </c>
       <c r="E1161" t="n">
         <v>35</v>
       </c>
@@ -22946,7 +23446,11 @@
           <t>April 5 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1178" t="inlineStr"/>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1178" t="n">
         <v>35</v>
       </c>
@@ -22965,7 +23469,11 @@
           <t>April 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1179" t="inlineStr"/>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>Esther Wishnev</t>
+        </is>
+      </c>
       <c r="E1179" t="n">
         <v>35</v>
       </c>
@@ -23345,7 +23853,11 @@
           <t>April 9 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1199" t="inlineStr"/>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1199" t="n">
         <v>35</v>
       </c>
@@ -23364,7 +23876,11 @@
           <t>April 9 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>Mina Kwitkin</t>
+        </is>
+      </c>
       <c r="E1200" t="n">
         <v>35</v>
       </c>
@@ -23592,7 +24108,11 @@
           <t>April 11 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1212" t="inlineStr"/>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1212" t="n">
         <v>35</v>
       </c>
@@ -23611,7 +24131,11 @@
           <t>April 11 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1213" t="inlineStr"/>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>Miriam Warshawsky</t>
+        </is>
+      </c>
       <c r="E1213" t="n">
         <v>35</v>
       </c>
@@ -24466,7 +24990,11 @@
           <t>April 19 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1258" t="inlineStr"/>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>Anniversary</t>
+        </is>
+      </c>
       <c r="E1258" t="n">
         <v>35</v>
       </c>
@@ -24485,7 +25013,11 @@
           <t>April 19 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1259" t="inlineStr"/>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>Mark &amp; Kathryn Safran</t>
+        </is>
+      </c>
       <c r="E1259" t="n">
         <v>35</v>
       </c>
@@ -24770,7 +25302,11 @@
           <t>April 22 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1274" t="inlineStr"/>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>Debbie Goldberg Simmins</t>
+        </is>
+      </c>
       <c r="E1274" t="n">
         <v>35</v>
       </c>
@@ -24865,7 +25401,11 @@
           <t>April 24 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1279" t="inlineStr"/>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1279" t="n">
         <v>35</v>
       </c>
@@ -24884,7 +25424,11 @@
           <t>April 24 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1280" t="inlineStr"/>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>Annakah Smolensky</t>
+        </is>
+      </c>
       <c r="E1280" t="n">
         <v>35</v>
       </c>
@@ -25074,11 +25618,7 @@
           <t>April 27 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1290" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1290" t="inlineStr"/>
       <c r="E1290" t="n">
         <v>35</v>
       </c>
@@ -25097,11 +25637,7 @@
           <t>April 27 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1291" t="inlineStr">
-        <is>
-          <t>Sarah (Caroline) Amzallag</t>
-        </is>
-      </c>
+      <c r="D1291" t="inlineStr"/>
       <c r="E1291" t="n">
         <v>35</v>
       </c>
@@ -25139,7 +25675,11 @@
           <t>April 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1293" t="inlineStr"/>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1293" t="n">
         <v>35</v>
       </c>
@@ -25158,7 +25698,11 @@
           <t>April 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1294" t="inlineStr"/>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>Rabbi Mordechai Fisher</t>
+        </is>
+      </c>
       <c r="E1294" t="n">
         <v>35</v>
       </c>
@@ -25196,11 +25740,7 @@
           <t>April 29 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1296" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1296" t="inlineStr"/>
       <c r="E1296" t="n">
         <v>35</v>
       </c>
@@ -25219,11 +25759,7 @@
           <t>April 29 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1297" t="inlineStr">
-        <is>
-          <t>Dr. Shlomo (Shawn) Cohen</t>
-        </is>
-      </c>
+      <c r="D1297" t="inlineStr"/>
       <c r="E1297" t="n">
         <v>35</v>
       </c>
@@ -25983,7 +26519,11 @@
           <t>May 8 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1337" t="inlineStr"/>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1337" t="n">
         <v>35</v>
       </c>
@@ -26002,7 +26542,11 @@
           <t>May 8 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1338" t="inlineStr"/>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>Shoshana Daughter of Chaya</t>
+        </is>
+      </c>
       <c r="E1338" t="n">
         <v>35</v>
       </c>
@@ -26021,7 +26565,11 @@
           <t>May 8 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1339" t="inlineStr"/>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>Anniversary Bob &amp; Helen Wishnev</t>
+        </is>
+      </c>
       <c r="E1339" t="n">
         <v>35</v>
       </c>
@@ -26192,7 +26740,11 @@
           <t>May 10 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1348" t="inlineStr"/>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>Happy Birthday Rahm Kalif</t>
+        </is>
+      </c>
       <c r="E1348" t="n">
         <v>35</v>
       </c>
@@ -26439,11 +26991,7 @@
           <t>May 13 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1361" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Lyla Rapkin</t>
-        </is>
-      </c>
+      <c r="D1361" t="inlineStr"/>
       <c r="E1361" t="n">
         <v>35</v>
       </c>
@@ -26462,11 +27010,7 @@
           <t>May 13 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1362" t="inlineStr">
-        <is>
-          <t>Leah bas Aryeh Leib</t>
-        </is>
-      </c>
+      <c r="D1362" t="inlineStr"/>
       <c r="E1362" t="n">
         <v>35</v>
       </c>
@@ -26485,7 +27029,11 @@
           <t>May 14 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1363" t="inlineStr"/>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1363" t="n">
         <v>35</v>
       </c>
@@ -26504,7 +27052,11 @@
           <t>May 14 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1364" t="inlineStr"/>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>Matan Gavriel Kalif</t>
+        </is>
+      </c>
       <c r="E1364" t="n">
         <v>35</v>
       </c>
@@ -26561,11 +27113,7 @@
           <t>May 14 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1367" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Mortimer Vineberg</t>
-        </is>
-      </c>
+      <c r="D1367" t="inlineStr"/>
       <c r="E1367" t="n">
         <v>35</v>
       </c>
@@ -26584,11 +27132,7 @@
           <t>May 14 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1368" t="inlineStr">
-        <is>
-          <t>Mordechai ben Shmuel Avraham</t>
-        </is>
-      </c>
+      <c r="D1368" t="inlineStr"/>
       <c r="E1368" t="n">
         <v>35</v>
       </c>
@@ -27063,11 +27607,7 @@
           <t>May 19 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1393" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Sidney Morris Copoloff</t>
-        </is>
-      </c>
+      <c r="D1393" t="inlineStr"/>
       <c r="E1393" t="n">
         <v>35</v>
       </c>
@@ -27086,11 +27626,7 @@
           <t xml:space="preserve">May 19 - Line 1 (35) </t>
         </is>
       </c>
-      <c r="D1394" t="inlineStr">
-        <is>
-          <t>Shlomo Moshe ben Refoel Tzvi</t>
-        </is>
-      </c>
+      <c r="D1394" t="inlineStr"/>
       <c r="E1394" t="n">
         <v>35</v>
       </c>
@@ -27109,7 +27645,11 @@
           <t>May 20 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1395" t="n">
         <v>35</v>
       </c>
@@ -27128,7 +27668,11 @@
           <t>May 20 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1396" t="inlineStr"/>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rahma Sadoun </t>
+        </is>
+      </c>
       <c r="E1396" t="n">
         <v>35</v>
       </c>
@@ -27527,7 +28071,11 @@
           <t>May 24 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1417" t="inlineStr"/>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>Albert Shapiro</t>
+        </is>
+      </c>
       <c r="E1417" t="n">
         <v>35</v>
       </c>
@@ -27907,7 +28455,11 @@
           <t>May 28 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1437" t="inlineStr"/>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1437" t="n">
         <v>35</v>
       </c>
@@ -27926,7 +28478,11 @@
           <t>May 28 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1438" t="inlineStr"/>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>Max Goldfarb</t>
+        </is>
+      </c>
       <c r="E1438" t="n">
         <v>35</v>
       </c>
@@ -28040,7 +28596,11 @@
           <t>May 29 - Line 5 (25)</t>
         </is>
       </c>
-      <c r="D1444" t="inlineStr"/>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1444" t="n">
         <v>25</v>
       </c>
@@ -28059,7 +28619,11 @@
           <t>May 29 - Line 4 (25)</t>
         </is>
       </c>
-      <c r="D1445" t="inlineStr"/>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>Marvin Tanenhaus</t>
+        </is>
+      </c>
       <c r="E1445" t="n">
         <v>25</v>
       </c>
@@ -28192,7 +28756,11 @@
           <t>May 30 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1452" t="inlineStr"/>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1452" t="n">
         <v>35</v>
       </c>
@@ -28211,7 +28779,11 @@
           <t>May 30 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1453" t="inlineStr"/>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>Herman Yellin</t>
+        </is>
+      </c>
       <c r="E1453" t="n">
         <v>35</v>
       </c>
@@ -28458,11 +29030,7 @@
           <t>June 2 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1466" t="inlineStr">
-        <is>
-          <t>Yahtzeit of Mark Niloff</t>
-        </is>
-      </c>
+      <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="n">
         <v>35</v>
       </c>
@@ -28481,11 +29049,7 @@
           <t>June 2 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1467" t="inlineStr">
-        <is>
-          <t>Michoel ben Yosef</t>
-        </is>
-      </c>
+      <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="n">
         <v>35</v>
       </c>
@@ -28504,7 +29068,11 @@
           <t>June 3 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1468" t="inlineStr"/>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1468" t="n">
         <v>35</v>
       </c>
@@ -28523,7 +29091,11 @@
           <t>June 3 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1469" t="inlineStr"/>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>Jerry Kaiser</t>
+        </is>
+      </c>
       <c r="E1469" t="n">
         <v>35</v>
       </c>
@@ -28618,7 +29190,11 @@
           <t>June 4 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1474" t="inlineStr"/>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1474" t="n">
         <v>35</v>
       </c>
@@ -28637,7 +29213,11 @@
           <t>June 4 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1475" t="inlineStr"/>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>Murray Tuckman</t>
+        </is>
+      </c>
       <c r="E1475" t="n">
         <v>35</v>
       </c>
@@ -28751,7 +29331,11 @@
           <t>June 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1481" t="inlineStr"/>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1481" t="n">
         <v>35</v>
       </c>
@@ -28770,7 +29354,11 @@
           <t>June 5 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1482" t="inlineStr"/>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>Kathryn Safran</t>
+        </is>
+      </c>
       <c r="E1482" t="n">
         <v>35</v>
       </c>
@@ -28903,11 +29491,7 @@
           <t>June 6 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yahrtzeit of </t>
-        </is>
-      </c>
+      <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="n">
         <v>35</v>
       </c>
@@ -28926,11 +29510,7 @@
           <t>June 6 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1490" t="inlineStr">
-        <is>
-          <t>Yeshayahu ben Avrohom Jodorcovsky</t>
-        </is>
-      </c>
+      <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="n">
         <v>35</v>
       </c>
@@ -28949,11 +29529,7 @@
           <t>June 6 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Charlotte Schwartz</t>
-        </is>
-      </c>
+      <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="n">
         <v>35</v>
       </c>
@@ -28991,11 +29567,7 @@
           <t>June 7 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1493" t="inlineStr">
-        <is>
-          <t>Happy Birthday Eden (Sophia)</t>
-        </is>
-      </c>
+      <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="n">
         <v>35</v>
       </c>
@@ -29071,7 +29643,11 @@
           <t>June 8 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1497" t="inlineStr"/>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1497" t="n">
         <v>35</v>
       </c>
@@ -29166,11 +29742,7 @@
           <t>June 9 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1502" t="inlineStr">
-        <is>
-          <t>Yahtzeit of Meer Friedman</t>
-        </is>
-      </c>
+      <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="n">
         <v>35</v>
       </c>
@@ -29189,11 +29761,7 @@
           <t>June 9 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1503" t="inlineStr">
-        <is>
-          <t>Mayer ben Chaim</t>
-        </is>
-      </c>
+      <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="n">
         <v>35</v>
       </c>
@@ -29668,7 +30236,11 @@
           <t>June 15 - Line 5 (25)</t>
         </is>
       </c>
-      <c r="D1528" t="inlineStr"/>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>Mendel Leverton</t>
+        </is>
+      </c>
       <c r="E1528" t="n">
         <v>25</v>
       </c>
@@ -29782,11 +30354,7 @@
           <t>June 16 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1534" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Bubby Notik</t>
-        </is>
-      </c>
+      <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="n">
         <v>35</v>
       </c>
@@ -29805,11 +30373,7 @@
           <t>June 16 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1535" t="inlineStr">
-        <is>
-          <t>Rivka Sheina bas R' Saadya</t>
-        </is>
-      </c>
+      <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="n">
         <v>35</v>
       </c>
@@ -29847,11 +30411,7 @@
           <t>June 16 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1537" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Abe Horovitz</t>
-        </is>
-      </c>
+      <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="n">
         <v>35</v>
       </c>
@@ -29870,11 +30430,7 @@
           <t>June 16 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1538" t="inlineStr">
-        <is>
-          <t>Avraham ben Tzvi</t>
-        </is>
-      </c>
+      <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="n">
         <v>35</v>
       </c>
@@ -29893,7 +30449,11 @@
           <t>June 17 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1539" t="inlineStr"/>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1539" t="n">
         <v>35</v>
       </c>
@@ -29912,7 +30472,11 @@
           <t>June 17 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1540" t="inlineStr"/>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>Donna Rudnick</t>
+        </is>
+      </c>
       <c r="E1540" t="n">
         <v>35</v>
       </c>
@@ -30330,11 +30894,7 @@
           <t>June 20 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Fiby Amar</t>
-        </is>
-      </c>
+      <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="n">
         <v>35</v>
       </c>
@@ -30904,11 +31464,7 @@
           <t>June 26 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1592" t="inlineStr">
-        <is>
-          <t>Happy Birthday</t>
-        </is>
-      </c>
+      <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="n">
         <v>35</v>
       </c>
@@ -30927,11 +31483,7 @@
           <t>June 26 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1593" t="inlineStr">
-        <is>
-          <t>Aryeh (Charles) Schiller</t>
-        </is>
-      </c>
+      <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="n">
         <v>35</v>
       </c>
@@ -31007,11 +31559,7 @@
           <t>June 27 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1597" t="inlineStr">
-        <is>
-          <t>Happy Birthday Sarah</t>
-        </is>
-      </c>
+      <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="n">
         <v>35</v>
       </c>
@@ -31049,11 +31597,7 @@
           <t>June 27 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1599" t="inlineStr">
-        <is>
-          <t>Happy Birthday Ahuva (Amanda) Beker</t>
-        </is>
-      </c>
+      <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="n">
         <v>35</v>
       </c>
@@ -31395,7 +31939,11 @@
           <t>July 2 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1617" t="inlineStr"/>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>Happy Anniversary</t>
+        </is>
+      </c>
       <c r="E1617" t="n">
         <v>35</v>
       </c>
@@ -31414,7 +31962,11 @@
           <t>July 2 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1618" t="inlineStr"/>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>Steve &amp; Gail Tuckman</t>
+        </is>
+      </c>
       <c r="E1618" t="n">
         <v>35</v>
       </c>
@@ -31737,7 +32289,11 @@
           <t>July 5 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1635" t="inlineStr"/>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1635" t="n">
         <v>35</v>
       </c>
@@ -31756,7 +32312,11 @@
           <t>July 5 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1636" t="inlineStr"/>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>Dan Bershad</t>
+        </is>
+      </c>
       <c r="E1636" t="n">
         <v>35</v>
       </c>
@@ -31965,11 +32525,7 @@
           <t>July 7 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1647" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Sonny Steinman</t>
-        </is>
-      </c>
+      <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="n">
         <v>35</v>
       </c>
@@ -31988,11 +32544,7 @@
           <t>July 7 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1648" t="inlineStr">
-        <is>
-          <t>Yitzchak ben Dovid</t>
-        </is>
-      </c>
+      <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="n">
         <v>35</v>
       </c>
@@ -32391,7 +32943,11 @@
           <t xml:space="preserve">July 11 - Line 4 (35) </t>
         </is>
       </c>
-      <c r="D1669" t="inlineStr"/>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>Happy Anniversary</t>
+        </is>
+      </c>
       <c r="E1669" t="n">
         <v>35</v>
       </c>
@@ -32410,7 +32966,11 @@
           <t>July 11 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1670" t="inlineStr"/>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>Miles &amp; Sheryl Martin</t>
+        </is>
+      </c>
       <c r="E1670" t="n">
         <v>35</v>
       </c>
@@ -32467,7 +33027,11 @@
           <t>July 12 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1673" t="inlineStr"/>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1673" t="n">
         <v>35</v>
       </c>
@@ -32486,7 +33050,11 @@
           <t>July 12 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1674" t="inlineStr"/>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>Tal Kalif</t>
+        </is>
+      </c>
       <c r="E1674" t="n">
         <v>35</v>
       </c>
@@ -33626,7 +34194,11 @@
           <t>July 23 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D1734" t="inlineStr"/>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1734" t="n">
         <v>35</v>
       </c>
@@ -33645,7 +34217,11 @@
           <t>July 23 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1735" t="inlineStr"/>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>Beatrice Schwartz</t>
+        </is>
+      </c>
       <c r="E1735" t="n">
         <v>35</v>
       </c>
@@ -33930,7 +34506,11 @@
           <t>July 26 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1750" t="inlineStr"/>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1750" t="n">
         <v>35</v>
       </c>
@@ -33949,7 +34529,11 @@
           <t>July 26 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1751" t="inlineStr"/>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>Bella Finkelstein</t>
+        </is>
+      </c>
       <c r="E1751" t="n">
         <v>35</v>
       </c>
@@ -34120,7 +34704,11 @@
           <t>July 28 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1760" t="inlineStr"/>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1760" t="n">
         <v>35</v>
       </c>
@@ -34139,7 +34727,11 @@
           <t>July 28 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1761" t="inlineStr"/>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>Natalie Abayev</t>
+        </is>
+      </c>
       <c r="E1761" t="n">
         <v>35</v>
       </c>
@@ -34215,11 +34807,7 @@
           <t>July 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1765" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Jacques Bendahan</t>
-        </is>
-      </c>
+      <c r="D1765" t="inlineStr"/>
       <c r="E1765" t="n">
         <v>35</v>
       </c>
@@ -34238,7 +34826,11 @@
           <t>July 29 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1766" t="inlineStr"/>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1766" t="n">
         <v>35</v>
       </c>
@@ -34257,7 +34849,11 @@
           <t>July 29 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1767" t="inlineStr"/>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>Lillian Goldfarb</t>
+        </is>
+      </c>
       <c r="E1767" t="n">
         <v>35</v>
       </c>
@@ -34808,7 +35404,11 @@
           <t>August 3 - Line 4 (25)</t>
         </is>
       </c>
-      <c r="D1796" t="inlineStr"/>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1796" t="n">
         <v>25</v>
       </c>
@@ -34827,7 +35427,11 @@
           <t>August 3 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D1797" t="inlineStr"/>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>Ari Leverton</t>
+        </is>
+      </c>
       <c r="E1797" t="n">
         <v>35</v>
       </c>
@@ -34884,7 +35488,11 @@
           <t>August 4 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1800" t="inlineStr"/>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1800" t="n">
         <v>35</v>
       </c>
@@ -34903,7 +35511,11 @@
           <t>August 4 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1801" t="inlineStr"/>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>Fred M. Cohen</t>
+        </is>
+      </c>
       <c r="E1801" t="n">
         <v>35</v>
       </c>
@@ -35093,7 +35705,11 @@
           <t>August 6 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1811" t="inlineStr"/>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1811" t="n">
         <v>35</v>
       </c>
@@ -35112,7 +35728,11 @@
           <t>August 6 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1812" t="inlineStr"/>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>Helene Wishnev</t>
+        </is>
+      </c>
       <c r="E1812" t="n">
         <v>35</v>
       </c>
@@ -35169,11 +35789,7 @@
           <t>August 6 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D1815" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yahrtzeit of </t>
-        </is>
-      </c>
+      <c r="D1815" t="inlineStr"/>
       <c r="E1815" t="n">
         <v>35</v>
       </c>
@@ -35192,11 +35808,7 @@
           <t>August 6 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D1816" t="inlineStr">
-        <is>
-          <t>Aimee Madeline Richmond</t>
-        </is>
-      </c>
+      <c r="D1816" t="inlineStr"/>
       <c r="E1816" t="n">
         <v>35</v>
       </c>
@@ -35614,7 +36226,11 @@
           <t>August 11 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1838" t="inlineStr"/>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1838" t="n">
         <v>35</v>
       </c>
@@ -35633,7 +36249,11 @@
           <t>August 11 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1839" t="inlineStr"/>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>Robert Wishnev</t>
+        </is>
+      </c>
       <c r="E1839" t="n">
         <v>35</v>
       </c>
@@ -35823,7 +36443,11 @@
           <t>August 13 - Line 6 (20)</t>
         </is>
       </c>
-      <c r="D1849" t="inlineStr"/>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1849" t="n">
         <v>20</v>
       </c>
@@ -35842,7 +36466,11 @@
           <t>August 13 - Line 5 (20)</t>
         </is>
       </c>
-      <c r="D1850" t="inlineStr"/>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>Marsha Golbert Pannone</t>
+        </is>
+      </c>
       <c r="E1850" t="n">
         <v>20</v>
       </c>
@@ -36564,7 +37192,11 @@
           <t>August 20 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1888" t="inlineStr"/>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1888" t="n">
         <v>35</v>
       </c>
@@ -36583,7 +37215,11 @@
           <t>August 20 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1889" t="inlineStr"/>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>Jaya Abayev</t>
+        </is>
+      </c>
       <c r="E1889" t="n">
         <v>35</v>
       </c>
@@ -36678,7 +37314,11 @@
           <t>August 21 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1894" t="inlineStr"/>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1894" t="n">
         <v>35</v>
       </c>
@@ -36697,7 +37337,11 @@
           <t>August 21 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1895" t="inlineStr"/>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>Bernard Saltin</t>
+        </is>
+      </c>
       <c r="E1895" t="n">
         <v>35</v>
       </c>
@@ -37210,7 +37854,11 @@
           <t>August 26 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1922" t="inlineStr"/>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1922" t="n">
         <v>35</v>
       </c>
@@ -37229,7 +37877,11 @@
           <t>August 26 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1923" t="inlineStr"/>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>Shirlee Goldfarb</t>
+        </is>
+      </c>
       <c r="E1923" t="n">
         <v>35</v>
       </c>
@@ -37666,7 +38318,11 @@
           <t>August 30 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1946" t="inlineStr"/>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E1946" t="n">
         <v>35</v>
       </c>
@@ -37685,7 +38341,11 @@
           <t>August 30 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1947" t="inlineStr"/>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>Carl H. Grill</t>
+        </is>
+      </c>
       <c r="E1947" t="n">
         <v>35</v>
       </c>
@@ -38654,7 +39314,11 @@
           <t>September 9 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D1998" t="inlineStr"/>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E1998" t="n">
         <v>35</v>
       </c>
@@ -38673,7 +39337,11 @@
           <t>September 9 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D1999" t="inlineStr"/>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>Ella Kalif</t>
+        </is>
+      </c>
       <c r="E1999" t="n">
         <v>35</v>
       </c>
@@ -38768,7 +39436,11 @@
           <t>September 10 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D2004" t="inlineStr"/>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E2004" t="n">
         <v>35</v>
       </c>
@@ -38787,7 +39459,11 @@
           <t>September 10 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D2005" t="inlineStr"/>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>Max Herman</t>
+        </is>
+      </c>
       <c r="E2005" t="n">
         <v>35</v>
       </c>
@@ -38806,7 +39482,11 @@
           <t>September 10 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D2006" t="inlineStr"/>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E2006" t="n">
         <v>35</v>
       </c>
@@ -38825,7 +39505,11 @@
           <t>September 10 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D2007" t="inlineStr"/>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>Arthur Finkelstein</t>
+        </is>
+      </c>
       <c r="E2007" t="n">
         <v>35</v>
       </c>
@@ -38844,7 +39528,11 @@
           <t>September 10 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D2008" t="inlineStr"/>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E2008" t="n">
         <v>35</v>
       </c>
@@ -38863,7 +39551,11 @@
           <t>September 10 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2009" t="inlineStr"/>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>Arthur Finkelstein</t>
+        </is>
+      </c>
       <c r="E2009" t="n">
         <v>35</v>
       </c>
@@ -39300,7 +39992,11 @@
           <t>September 15 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D2032" t="inlineStr"/>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E2032" t="n">
         <v>35</v>
       </c>
@@ -39319,7 +40015,11 @@
           <t>September 15 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D2033" t="inlineStr"/>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>Beatrice Gilhart</t>
+        </is>
+      </c>
       <c r="E2033" t="n">
         <v>35</v>
       </c>
@@ -39338,7 +40038,11 @@
           <t>September 15 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D2034" t="inlineStr"/>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E2034" t="n">
         <v>35</v>
       </c>
@@ -39357,7 +40061,11 @@
           <t>September 15 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D2035" t="inlineStr"/>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>Beatrice Gilhart</t>
+        </is>
+      </c>
       <c r="E2035" t="n">
         <v>35</v>
       </c>
@@ -39794,7 +40502,11 @@
           <t>September 19 - Line 4 (35)</t>
         </is>
       </c>
-      <c r="D2058" t="inlineStr"/>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>Happy Birthday</t>
+        </is>
+      </c>
       <c r="E2058" t="n">
         <v>35</v>
       </c>
@@ -39813,7 +40525,11 @@
           <t>September 19 - Line 3 (35)</t>
         </is>
       </c>
-      <c r="D2059" t="inlineStr"/>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>Ella Kalif</t>
+        </is>
+      </c>
       <c r="E2059" t="n">
         <v>35</v>
       </c>
@@ -40383,11 +41099,7 @@
           <t>September 24 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2089" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Libby Echenberg</t>
-        </is>
-      </c>
+      <c r="D2089" t="inlineStr"/>
       <c r="E2089" t="n">
         <v>35</v>
       </c>
@@ -40767,11 +41479,7 @@
           <t>September 28 - Line 2 (35)</t>
         </is>
       </c>
-      <c r="D2109" t="inlineStr">
-        <is>
-          <t>Yahrtzeit of Felicia Aaron</t>
-        </is>
-      </c>
+      <c r="D2109" t="inlineStr"/>
       <c r="E2109" t="n">
         <v>35</v>
       </c>
@@ -40790,11 +41498,7 @@
           <t>September 28 - Line 1 (35)</t>
         </is>
       </c>
-      <c r="D2110" t="inlineStr">
-        <is>
-          <t>Tzipora Bas Shimon Leib</t>
-        </is>
-      </c>
+      <c r="D2110" t="inlineStr"/>
       <c r="E2110" t="n">
         <v>35</v>
       </c>
@@ -40813,7 +41517,11 @@
           <t>September 29 - Line 6 (35)</t>
         </is>
       </c>
-      <c r="D2111" t="inlineStr"/>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>Yahrtzeit</t>
+        </is>
+      </c>
       <c r="E2111" t="n">
         <v>35</v>
       </c>
@@ -40832,7 +41540,11 @@
           <t>September 29 - Line 5 (35)</t>
         </is>
       </c>
-      <c r="D2112" t="inlineStr"/>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>Larry Barnett</t>
+        </is>
+      </c>
       <c r="E2112" t="n">
         <v>35</v>
       </c>
